--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programare\Projects\Purchase-Pattern-Predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88CC36C-26B6-4D6B-B3F8-5AB44B19F3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11783335-5F67-4E66-B95F-0EC24D49AEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="41">
   <si>
     <t>Model_Scaler/Split</t>
   </si>
@@ -158,23 +158,17 @@
     <t>MyDecisionTreeClassifier_NoneType_depth_6</t>
   </si>
   <si>
-    <t>Average F1</t>
+    <t>Variance</t>
   </si>
   <si>
-    <t>Average Recall</t>
-  </si>
-  <si>
-    <t>Average Precision</t>
-  </si>
-  <si>
-    <t>Average Accuracy</t>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -190,6 +184,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -222,11 +223,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,7 +293,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,19 +659,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="42.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="44.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="42.5703125" style="1" customWidth="1"/>
@@ -618,8 +699,8 @@
     <col min="40" max="1024" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -652,1490 +733,1645 @@
       <c r="K1" s="2">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="L1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.80068937550689401</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.75577858880778603</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.47952149229521501</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.35452149229521501</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.84144363341443595</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.84630981346309797</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.83748986212489895</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.49635036496350399</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.80890105433901005</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.61851175993511798</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="B2" s="1">
+        <v>0.22911597729116001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.82603406326034101</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.772911597729116</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.50364963503649596</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.84306569343065696</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.30210867802108698</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.60786699107867004</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.78345498783455003</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.81508515815085203</v>
+      </c>
+      <c r="L2" s="4">
         <f>AVERAGE(B2:K2)</f>
-        <v>0.68395174371451761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.65259529602595312</v>
+      </c>
+      <c r="M2" s="1">
+        <f>VARA(B2:K2)</f>
+        <v>5.4094322051779505E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.86729521492295203</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.86293592862935897</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.85766423357664201</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.86658556366585604</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.86334144363341403</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.86303730738037299</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.85827250608272498</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.86354420113544195</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.86090835360908402</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.86851175993511798</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="B3" s="1">
+        <v>0.88564476885644805</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.90227088402270905</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.87793998377939997</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.87875101378750997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.88321167883211704</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.86253041362530403</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.88240064882400604</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.871857258718573</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.871857258718573</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.87347931873479301</v>
+      </c>
+      <c r="L3" s="4">
         <f t="shared" ref="L3:L39" si="0">AVERAGE(B3:K3)</f>
-        <v>0.86320965125709637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.87899432278994338</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M39" si="1">VARA(B3:K3)</f>
+        <v>1.1332640628781115E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.529298459042985</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.62236415247364196</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.50020275750202803</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.53659772911597703</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.41433495539335002</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.54227493917274905</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.71066504460665103</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.66717356042173603</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.60178426601784296</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.68734793187347898</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.58120437956204396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>0.48134630981346299</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.43755068937550701</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.42781832927818297</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.38442822384428199</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.38523925385239199</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.53203568532035705</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.55920519059205198</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.64720194647201901</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.68653690186536898</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.58556366585563702</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51269261962692603</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1410113106418941E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.88270478507704797</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="1">
+        <v>0.89294403892943996</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.89537712895377097</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.87915652879156503</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.87712895377128897</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.886861313868613</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.88300892133008901</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.88148824006488202</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.87844687753446904</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.88412408759124095</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.882096512570965</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.88361719383617199</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.88270478507704797</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.883718572587186</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88287712895377146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>0.87347931873479301</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.88158961881589604</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.88280616382806198</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.87591240875912402</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.88118410381184098</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88264395782643934</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1240257608914571E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.59387672343876696</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.68724655312246496</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.617903487429035</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.74320762368207605</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.65439983779399802</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.69920924574209198</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.45275750202757498</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.78629359286293599</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.65977291159772899</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.54876317923763196</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.64434306569343058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>0.67153284671532798</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.50527169505271696</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.81467964314679597</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.62935928629359295</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.77128953771289499</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.66382806163828101</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.75669099756691005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.59610705596107105</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.61638280616382801</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.59489051094890499</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66200324412003231</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9857275674412786E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.88148824006488202</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="1">
+        <v>0.89456609894566097</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.887672343876723</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.88412408759124095</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.88148824006488202</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.879764801297648</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.88615166261151701</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.88219789132197901</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.88381995133819902</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.88331305758313095</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.88311030008110303</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8833130575831305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0.87631792376317896</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.87510137875101401</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.88564476885644805</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.87226277372262795</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.88199513381995098</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.88483373884833705</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.87469586374695896</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.88118410381184098</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88142741281427417</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8536093393352551E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.88564476885644805</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.89274128142741305</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.88909164639091598</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.88665855636658497</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.88696269261962701</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.89020681265206802</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.89375506893755097</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.896390916463909</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.88980129764801297</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.89122060016220594</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89024736415247374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>0.90145985401459805</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.89416058394160602</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.89010543390105401</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.89132197891321996</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.89781021897810198</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.88240064882400604</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.88118410381184098</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.89051094890510896</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.89213300892132996</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.89983779399837804</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89209245742092436</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4964038635636992E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.84357258718572603</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.84560016220600198</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.84286293592862904</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.844180859691809</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="B9" s="1">
+        <v>0.85117599351175999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.83738848337388505</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.855231143552311</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.84671532846715303</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.83090024330900203</v>
+      </c>
+      <c r="K9" s="1">
         <v>0.84306569343065696</v>
       </c>
-      <c r="G9" s="4">
-        <v>0.846512570965126</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.84195052716950503</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.84712084347120797</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.84539740470397395</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.84478913219789098</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84450527169505263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84168694241686914</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3567883767128756E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.886861313868613</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.88899026763990296</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.88838199513381999</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.88158961881589604</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.886861313868613</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.89030819140308204</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.88787510137875103</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.88868613138686103</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.89111922141119204</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.89334955393349602</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88840227088402268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>0.89781021897810198</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.89456609894566097</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.89781021897810198</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.89416058394160602</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.89578264395782603</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.89537712895377097</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.886050283860503</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.90024330900243299</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.88969991889699895</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.903487429034874</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89549878345498768</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.47412754343993E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.84357258718572603</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.84560016220600198</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.84286293592862904</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.844180859691809</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="B11" s="1">
+        <v>0.85117599351175999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.83738848337388505</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.855231143552311</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.84671532846715303</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.83090024330900203</v>
+      </c>
+      <c r="K11" s="1">
         <v>0.84306569343065696</v>
       </c>
-      <c r="G11" s="4">
-        <v>0.846512570965126</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.84195052716950503</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.84712084347120797</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.84539740470397395</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.84478913219789098</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84450527169505263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84168694241686914</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3567883767128756E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.88381995133819902</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.88899026763990296</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.88807785888077895</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.88513787510137898</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.887672343876723</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.88807785888077895</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.890004055150041</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.87317518248175197</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.88331305758313095</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.89730332522303302</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88655717761557207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>0.90227088402270905</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.90470397404703995</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.89132197891321996</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.89213300892132996</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.89943227899432299</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.89010543390105401</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.89294403892943996</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.88442822384428199</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.89943227899432299</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89456609894566108</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2608857774923772E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.84357258718572603</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.84560016220600198</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.84286293592862904</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.844180859691809</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="B13" s="1">
+        <v>0.85117599351175999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.83738848337388505</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.855231143552311</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.84671532846715303</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.83090024330900203</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.84306569343065696</v>
       </c>
-      <c r="G13" s="4">
-        <v>0.846512570965126</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.84195052716950503</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.84712084347120797</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.84539740470397395</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.84478913219789098</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84450527169505263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84168694241686914</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3567883767128756E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.87834549878345503</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.87935928629359295</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.886050283860503</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.878953771289538</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.87956204379561997</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.883718572587186</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.88574614760746195</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.882907542579075</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.87875101378750997</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.89051094890510896</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88239051094890508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>0.902676399026764</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.89862124898621198</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.89902676399026804</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.888483373884834</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.887672343876723</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.88280616382806198</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.88726682887266795</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.90024330900243299</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.88077858880778603</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.89456609894566097</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89221411192214117</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0580586980500954E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.84357258718572603</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.84560016220600198</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.84286293592862904</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.844180859691809</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="B15" s="1">
+        <v>0.85117599351175999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.83738848337388505</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.855231143552311</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.84671532846715303</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.83090024330900203</v>
+      </c>
+      <c r="K15" s="1">
         <v>0.84306569343065696</v>
       </c>
-      <c r="G15" s="4">
-        <v>0.846512570965126</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.84195052716950503</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.84712084347120797</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.84539740470397395</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.84478913219789098</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84450527169505263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84168694241686914</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3567883767128756E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.88564476885644805</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.89274128142741305</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.88909164639091598</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.88665855636658497</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.88696269261962701</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.89020681265206802</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.89375506893755097</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.896390916463909</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.88980129764801297</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.89122060016220594</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89024736415247374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>0.90145985401459805</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.89334955393349602</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.89091646390916501</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.86131386861313897</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.89781021897810198</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.88199513381995098</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.88280616382806198</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.89051094890510896</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.85685320356853201</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.86780210867802099</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88248175182481747</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4106527698936512E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.84326845093268499</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.84539740470397395</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.84276155717761603</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.84407948094079499</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="B17" s="1">
+        <v>0.85077047850770504</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.83738848337388505</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.83292781832927798</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.855231143552311</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.84225466342254696</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.83090024330900203</v>
+      </c>
+      <c r="K17" s="1">
         <v>0.84306569343065696</v>
       </c>
-      <c r="G17" s="4">
-        <v>0.84641119221411198</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.84195052716950503</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.84701946472019496</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.84519464720194704</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.84448499594485005</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84436334144363356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84152473641524705</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2968582508545316E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.88696269261962701</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.88909164639091598</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.88838199513381999</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.88158961881589604</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.886861313868613</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.89030819140308204</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.88868613138686103</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.88868613138686103</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.89111922141119204</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.89334955393349602</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88850364963503647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>0.79845904298459003</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.89902676399026804</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.89456609894566097</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.85928629359286302</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.89497161394971603</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.76561232765612297</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.89051094890510896</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.89618815896188198</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.87753446877534502</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.89497161394971603</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86711273317112725</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2114234713122311E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>0.84326845093268499</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.84539740470397395</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.84276155717761603</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.84407948094079499</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="B19" s="1">
+        <v>0.85077047850770504</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.83738848337388505</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.83292781832927798</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.855231143552311</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.84225466342254696</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.83090024330900203</v>
+      </c>
+      <c r="K19" s="1">
         <v>0.84306569343065696</v>
       </c>
-      <c r="G19" s="4">
-        <v>0.84641119221411198</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.84195052716950503</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.84701946472019496</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.84519464720194704</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.84448499594485005</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84436334144363356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84152473641524705</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2968582508545316E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.88402270884022705</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.88909164639091598</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.88463098134631002</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.887672343876723</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.88726682887266795</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.88990267639902698</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.87287104622871003</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.88442822384428199</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.89699918896999198</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88657745336577443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>0.86618004866179998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.90510948905109501</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.89051094890510896</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.87956204379561997</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.90024330900243299</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.69424168694241695</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.89497161394971603</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.89456609894566097</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.871046228710462</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.87469586374695896</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86711273317112703</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8590999620612995E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.84326845093268499</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.84539740470397395</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.84276155717761603</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.84407948094079499</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B21" s="1">
+        <v>0.85077047850770504</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.83738848337388505</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.83292781832927798</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.855231143552311</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.84225466342254696</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.83090024330900203</v>
+      </c>
+      <c r="K21" s="1">
         <v>0.84306569343065696</v>
       </c>
-      <c r="G21" s="4">
-        <v>0.84641119221411198</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.84195052716950503</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.84701946472019496</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.84519464720194704</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.84448499594485005</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84436334144363356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84152473641524705</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2968582508545316E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.87885239253852399</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.88229927007299302</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.88635442011354404</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.87844687753446904</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.878953771289538</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.88240064882400604</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0.88594890510948898</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.88331305758313095</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.87935928629359295</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.89122060016220594</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88271492295214915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>0.86577453365774504</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.89821573398215704</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.89213300892132996</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.86861313868613099</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.89213300892132996</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.63057583130575801</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.89699918896999198</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.89781021897810198</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.87429034874290301</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.89132197891321996</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86078669910786676</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6940141717207217E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.84326845093268499</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.84539740470397395</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.84276155717761603</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.84407948094079499</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="1">
+        <v>0.85077047850770504</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.83738848337388505</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.83292781832927798</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.855231143552311</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.84630981346309797</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.84225466342254696</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.83090024330900203</v>
+      </c>
+      <c r="K23" s="1">
         <v>0.84306569343065696</v>
       </c>
-      <c r="G23" s="4">
-        <v>0.84641119221411198</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.84195052716950503</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.84701946472019496</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.84519464720194704</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.84448499594485005</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84436334144363356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84152473641524705</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2968582508545316E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.88564476885644805</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.89274128142741305</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.88909164639091598</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.88665855636658497</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.88696269261962701</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.89020681265206802</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0.89375506893755097</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.896390916463909</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0.88980129764801297</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.89122060016220594</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89024736415247374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>0.90145985401459805</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.887672343876723</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.89010543390105401</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.86090835360908402</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.89781021897810198</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.88199513381995098</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.88199513381995098</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.89051094890510896</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.89172749391727502</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.86739659367396604</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88515815085158134</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6132897538998015E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
-        <v>0.84367396593674004</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.84509326845093302</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.84215328467153305</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.84407948094079499</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.84286293592862904</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.84610705596107105</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0.84144363341443595</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.84681670721816704</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0.84519464720194704</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.84428223844282202</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84417072181670749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>0.85036496350364998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.84590429845904302</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.83617193836171899</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.83252230332522303</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.85482562854825594</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.82927818329278202</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.84671532846715303</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84111922141119211</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6951743312546824E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
-        <v>0.886861313868613</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.88929440389294401</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.88838199513381999</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.88158961881589604</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.886861313868613</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.89040957015409605</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.88868613138686103</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.88868613138686103</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="B26" s="1">
+        <v>0.89983779399837804</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.89740470397404704</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.89537712895377097</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.85888077858880796</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.89578264395782603</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.89132197891321996</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.89051094890510896</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.89781021897810198</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.89537712895377097</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
         <v>0.89111922141119204</v>
       </c>
-      <c r="K26" s="4">
-        <v>0.89334955393349602</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88852392538523939</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4033333282173236E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
-        <v>0.84367396593674004</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.84509326845093302</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.84215328467153305</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.84407948094079499</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.84286293592862904</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.84610705596107105</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.84144363341443595</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0.84681670721816704</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0.84519464720194704</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0.84428223844282202</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84417072181670749</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>0.85036496350364998</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.84590429845904302</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.83617193836171899</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.83252230332522303</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.85482562854825594</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.82927818329278202</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.84671532846715303</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84111922141119211</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6951743312546824E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
-        <v>0.88381995133819902</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.88939578264395802</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.88523925385239199</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.887672343876723</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.887672343876723</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.88929440389294401</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.87337793998377899</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.88422546634225496</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0.89760746147607495</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88671938361719371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>0.902676399026764</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.901865369018654</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.89091646390916501</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.88037307380373098</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.89983779399837804</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.888483373884834</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.89578264395782603</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.89497161394971603</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.88158961881589604</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.87510137875101401</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89115977291159765</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2387404997046175E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
-        <v>0.84367396593674004</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.84509326845093302</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.84215328467153305</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.84407948094079499</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.84286293592862904</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.84610705596107105</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0.84144363341443595</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0.84681670721816704</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.84519464720194704</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.84428223844282202</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84417072181670749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>0.85036496350364998</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.84590429845904302</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.83617193836171899</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.83252230332522303</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.85482562854825594</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.82927818329278202</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.84671532846715303</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84111922141119211</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6951743312546824E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
-        <v>0.87956204379561997</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.87986618004866202</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.88523925385239199</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.87875101378750997</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.87925790754257904</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.88452960259529601</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0.88523925385239199</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0.88341443633414396</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.87834549878345503</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.88899026763990296</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88231954582319538</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>0.903487429034874</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.89659367396593703</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.89132197891321996</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.87347931873479301</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.89213300892132996</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.89091646390916501</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.89537712895377097</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.89781021897810198</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.88199513381995098</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.89294403892943996</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89160583941605831</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1369836772993954E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
-        <v>0.84367396593674004</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0.84509326845093302</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.84215328467153305</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.84407948094079499</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.84286293592862904</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.84610705596107105</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0.84144363341443595</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0.84681670721816704</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0.84519464720194704</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0.84428223844282202</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84417072181670749</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>0.85036496350364998</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.84590429845904302</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.83617193836171899</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.83252230332522303</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.85482562854825594</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.82927818329278202</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.84671532846715303</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.83008921330089203</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.84266017842660201</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84111922141119211</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6951743312546824E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
-        <v>0.88564476885644805</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.89274128142741305</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.88909164639091598</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0.88665855636658497</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.88696269261962701</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.89020681265206802</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="B32" s="1">
+        <v>0.90145985401459805</v>
+      </c>
+      <c r="C32" s="1">
         <v>0.89375506893755097</v>
       </c>
-      <c r="I32" s="4">
-        <v>0.896390916463909</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0.88980129764801297</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.89122060016220594</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89024736415247374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="D32" s="1">
+        <v>0.88969991889699895</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.89172749391727502</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.89781021897810198</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.88240064882400604</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.88158961881589604</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.89051094890510896</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.89172749391727502</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.89943227899432299</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89201135442011348</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3304997346630959E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.99969586374695896</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.99969586374695896</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.99969586374695896</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0.99969586374695896</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0.99969586374695896</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0.99969586374695896</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0.99969586374695896</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0.99979724249797197</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99974655312246585</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>0.99918896999189</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.99918896999189</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.99959448499594505</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.99959448499594505</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.99959448499594505</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.99918896999189</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.99918896999189</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="0"/>
+        <v>0.99955393349553945</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2607252086052626E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
-        <v>0.886861313868613</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.88919302514192999</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.88838199513381999</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.88158961881589604</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0.886861313868613</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.89040957015409605</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0.88787510137875103</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0.88899026763990296</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0.89111922141119204</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0.89365369018653695</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88849351175993529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>0.90024330900243299</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.89821573398215704</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.89537712895377097</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.89416058394160602</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.89578264395782603</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.89091646390916501</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.89010543390105401</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.89659367396593703</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.88929440389294401</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.901865369018654</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89525547445255482</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7944322135828008E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0.99989862124898599</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99990875912408761</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>0.99797242497972405</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.99797242497972405</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.99918896999189</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.99878345498783505</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.99716139497161405</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.99878345498783505</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.99837793998377899</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.99837793998377899</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.99797242497972405</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.99635036496350404</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99809407948094098</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="1"/>
+        <v>6.961395717086435E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
-        <v>0.88381995133819902</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0.88929440389294401</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.888483373884834</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.88493511759935095</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.887672343876723</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0.88838199513381999</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0.88959854014598505</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0.87368207623682104</v>
-      </c>
-      <c r="J36" s="4">
-        <v>0.88331305758313095</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0.89689781021897796</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88660786699107841</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>0.904298459042984</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.901865369018654</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.89172749391727502</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.89213300892132996</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.89983779399837804</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.89537712895377097</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.89578264395782603</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.88361719383617199</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.89983779399837804</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8953365774533657</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0651992994606051E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="4">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>0.99797242497972405</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.99797242497972405</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.99918896999189</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.99878345498783505</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.99716139497161405</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.99878345498783505</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.99837793998377899</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.99837793998377899</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.99797242497972405</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.99635036496350404</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99809407948094098</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="1"/>
+        <v>6.961395717086435E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
-        <v>0.87743309002433101</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.88017031630170295</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.88645579886455805</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0.87875101378750997</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.87986618004866202</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.88442822384428199</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0.88493511759935095</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0.88392133008921303</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0.87956204379561997</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0.89061232765612297</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88261354420113547</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>0.90389294403892895</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.89618815896188198</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.89294403892943996</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.89294403892943996</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.89091646390916501</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.89578264395782603</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.89862124898621198</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.88280616382806198</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.90064882400648805</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89436334144363339</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="1"/>
+        <v>3.702695123536544E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B39" s="1">
+        <v>0.99797242497972405</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.99797242497972405</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.99918896999189</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.99878345498783505</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.99716139497161405</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.99878345498783505</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.99837793998377899</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.99837793998377899</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.99797242497972405</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.99635036496350404</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99809407948094098</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="1"/>
+        <v>6.961395717086435E-7</v>
       </c>
     </row>
   </sheetData>
@@ -2146,23 +2382,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2193,287 +2428,318 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="8">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.329847144006436</v>
+        <v>0.148809523809524</v>
       </c>
       <c r="C2" s="1">
-        <v>0.16490166414523399</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.13592035757821999</v>
+        <v>0.27220630372492799</v>
       </c>
       <c r="E2" s="1">
-        <v>0.152517985611511</v>
+        <v>0.13345356176735801</v>
       </c>
       <c r="F2" s="1">
-        <v>5.5555555555555601E-2</v>
+        <v>0.24137931034482801</v>
       </c>
       <c r="G2" s="1">
-        <v>0.41666666666666702</v>
+        <v>0.14962325080732</v>
       </c>
       <c r="H2" s="1">
-        <v>0.238095238095238</v>
+        <v>0.15795586527293901</v>
       </c>
       <c r="I2" s="1">
-        <v>0.137468566638726</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.6412556053811702E-2</v>
+        <v>0.23766816143497799</v>
       </c>
       <c r="K2" s="1">
-        <v>8.0766341096919603E-2</v>
-      </c>
-      <c r="L2" s="1">
+        <v>9.41176470588235E-2</v>
+      </c>
+      <c r="L2" s="4">
         <f>AVERAGE(B2:K2)</f>
-        <v>0.18081520754483188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.15185469575540317</v>
+      </c>
+      <c r="M2" s="9">
+        <f>VARA(B2:K2)</f>
+        <v>6.8157542215303074E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.79695431472081202</v>
+        <v>0.79720279720279696</v>
       </c>
       <c r="C3" s="1">
-        <v>0.80427046263345203</v>
+        <v>0.80530973451327403</v>
       </c>
       <c r="D3" s="1">
-        <v>0.76838235294117596</v>
+        <v>0.74509803921568596</v>
       </c>
       <c r="E3" s="1">
-        <v>0.75638051044083499</v>
+        <v>0.73931623931623902</v>
       </c>
       <c r="F3" s="1">
-        <v>0.78735632183908</v>
+        <v>0.699421965317919</v>
       </c>
       <c r="G3" s="1">
-        <v>0.780068728522337</v>
+        <v>0.79850746268656703</v>
       </c>
       <c r="H3" s="1">
-        <v>0.82591093117408898</v>
+        <v>0.70560747663551404</v>
       </c>
       <c r="I3" s="1">
-        <v>0.72131147540983598</v>
+        <v>0.71951219512195097</v>
       </c>
       <c r="J3" s="1">
-        <v>0.73981191222570497</v>
+        <v>0.69960474308300402</v>
       </c>
       <c r="K3" s="1">
-        <v>0.79104477611940305</v>
-      </c>
-      <c r="L3" s="1">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="L3" s="4">
         <f t="shared" ref="L3:L39" si="0">AVERAGE(B3:K3)</f>
-        <v>0.77714917860267252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.74368533803656778</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M39" si="1">VARA(B3:K3)</f>
+        <v>1.7660242168156305E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.19619756958055701</v>
+        <v>7.2232645403377094E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>0.1980252331322</v>
+        <v>0.113496932515337</v>
       </c>
       <c r="D4" s="1">
-        <v>0.107342007434944</v>
+        <v>0.16819973718791101</v>
       </c>
       <c r="E4" s="1">
-        <v>0.14522918615528499</v>
+        <v>0.12525389302640499</v>
       </c>
       <c r="F4" s="1">
-        <v>0.18557620817843901</v>
+        <v>0.14073155610663399</v>
       </c>
       <c r="G4" s="1">
-        <v>0.203751233958539</v>
+        <v>0.199017199017199</v>
       </c>
       <c r="H4" s="1">
-        <v>0.21029082774049199</v>
+        <v>6.39606396063961E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0.268337248760115</v>
+        <v>0.223623853211009</v>
       </c>
       <c r="J4" s="1">
-        <v>0.173948439620081</v>
+        <v>0.242028985507246</v>
       </c>
       <c r="K4" s="1">
-        <v>0.28243205379658198</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19711300083572342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.25406661502711098</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16026120566086249</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="1"/>
+        <v>4.6535488768473183E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.74368686868686895</v>
+        <v>0.80116959064327498</v>
       </c>
       <c r="C5" s="1">
-        <v>0.76394293125810597</v>
+        <v>0.82010582010582</v>
       </c>
       <c r="D5" s="1">
-        <v>0.73515439429928697</v>
+        <v>0.76410256410256405</v>
       </c>
       <c r="E5" s="1">
-        <v>0.73529411764705899</v>
+        <v>0.76732673267326701</v>
       </c>
       <c r="F5" s="1">
-        <v>0.74612129760225698</v>
+        <v>0.69306930693069302</v>
       </c>
       <c r="G5" s="1">
-        <v>0.74899328859060399</v>
+        <v>0.820359281437126</v>
       </c>
       <c r="H5" s="1">
-        <v>0.75916230366492099</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>0.71686746987951799</v>
+        <v>0.75647668393782397</v>
       </c>
       <c r="J5" s="1">
-        <v>0.73350253807106602</v>
+        <v>0.76811594202898503</v>
       </c>
       <c r="K5" s="1">
-        <v>0.76301369863013702</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74457389083298231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.73979591836734704</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.76455218402269021</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7561534189443945E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.213538032100488</v>
+        <v>0.280039721946375</v>
       </c>
       <c r="C6" s="1">
-        <v>0.28353658536585402</v>
+        <v>0.17728319263238701</v>
       </c>
       <c r="D6" s="1">
-        <v>0.24239609937311299</v>
+        <v>0.45906432748538001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.30531665363565302</v>
+        <v>0.24362895005096799</v>
       </c>
       <c r="F6" s="1">
-        <v>0.203379024545744</v>
+        <v>0.32663316582914598</v>
       </c>
       <c r="G6" s="1">
-        <v>0.28862379982542902</v>
+        <v>0.229551451187335</v>
       </c>
       <c r="H6" s="1">
-        <v>0.165417465574342</v>
+        <v>0.31743421052631599</v>
       </c>
       <c r="I6" s="1">
-        <v>0.34894259818731099</v>
+        <v>0.22007366482504601</v>
       </c>
       <c r="J6" s="1">
-        <v>0.224495937405958</v>
+        <v>0.20643729189789101</v>
       </c>
       <c r="K6" s="1">
-        <v>0.21683475562451501</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.24924809516384067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.214018691588785</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26741646679696285</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="1"/>
+        <v>6.8701529719832838E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.75202156334231796</v>
+        <v>0.820359281437126</v>
       </c>
       <c r="C7" s="1">
-        <v>0.76843467011642996</v>
+        <v>0.81481481481481499</v>
       </c>
       <c r="D7" s="1">
-        <v>0.75030750307503102</v>
+        <v>0.75263157894736799</v>
       </c>
       <c r="E7" s="1">
-        <v>0.73529411764705899</v>
+        <v>0.76142131979695404</v>
       </c>
       <c r="F7" s="1">
-        <v>0.75421348314606695</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="G7" s="1">
-        <v>0.75825627476882396</v>
+        <v>0.79545454545454497</v>
       </c>
       <c r="H7" s="1">
-        <v>0.754813863928113</v>
+        <v>0.70813397129186595</v>
       </c>
       <c r="I7" s="1">
-        <v>0.71496437054631801</v>
+        <v>0.76262626262626299</v>
       </c>
       <c r="J7" s="1">
-        <v>0.73852040816326503</v>
+        <v>0.79670329670329698</v>
       </c>
       <c r="K7" s="1">
-        <v>0.76104972375690605</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74878759784903304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.74736842105263201</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.76737992064105787</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5233422163960326E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.69894534995206103</v>
+        <v>0.679190751445087</v>
       </c>
       <c r="C8" s="1">
-        <v>0.72079772079772098</v>
+        <v>0.69536423841059603</v>
       </c>
       <c r="D8" s="1">
-        <v>0.719653179190751</v>
+        <v>0.68258426966292096</v>
       </c>
       <c r="E8" s="1">
-        <v>0.63217665615142005</v>
+        <v>0.67654320987654304</v>
       </c>
       <c r="F8" s="1">
-        <v>0.78599735799207404</v>
+        <v>0.65395894428152501</v>
       </c>
       <c r="G8" s="1">
-        <v>0.63630613535736902</v>
+        <v>0.70607028753993595</v>
       </c>
       <c r="H8" s="1">
-        <v>0.69883268482490302</v>
+        <v>0.61154855643044603</v>
       </c>
       <c r="I8" s="1">
-        <v>0.66781767955801097</v>
+        <v>0.66120218579235002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.69346289752650203</v>
+        <v>0.70460704607046099</v>
       </c>
       <c r="K8" s="1">
-        <v>0.65266666666666695</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69066563280174786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.68716577540107004</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.67582352649109345</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="1"/>
+        <v>7.9272474640053282E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2507,51 +2773,59 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.68877099911582695</v>
+        <v>0.693602693602694</v>
       </c>
       <c r="C10" s="1">
-        <v>0.72431865828092201</v>
+        <v>0.70169491525423699</v>
       </c>
       <c r="D10" s="1">
-        <v>0.72517552657973905</v>
+        <v>0.74267100977198697</v>
       </c>
       <c r="E10" s="1">
-        <v>0.60821114369501506</v>
+        <v>0.737341772151899</v>
       </c>
       <c r="F10" s="1">
-        <v>0.73326133909287305</v>
+        <v>0.662337662337662</v>
       </c>
       <c r="G10" s="1">
-        <v>0.73893805309734495</v>
+        <v>0.78245614035087696</v>
       </c>
       <c r="H10" s="1">
-        <v>0.72011661807580196</v>
+        <v>0.64923076923076894</v>
       </c>
       <c r="I10" s="1">
-        <v>0.65275707898658697</v>
+        <v>0.74482758620689704</v>
       </c>
       <c r="J10" s="1">
-        <v>0.64983388704318901</v>
+        <v>0.74744027303754301</v>
       </c>
       <c r="K10" s="1">
-        <v>0.68784313725490198</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69292264412222004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.73354231974921602</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.71951451416937817</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7367799349359782E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2585,51 +2859,59 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.64649446494464902</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C12" s="1">
-        <v>0.71021611001964602</v>
+        <v>0.74827586206896601</v>
       </c>
       <c r="D12" s="1">
-        <v>0.67754777070063699</v>
+        <v>0.726962457337884</v>
       </c>
       <c r="E12" s="1">
-        <v>0.63254593175853002</v>
+        <v>0.73311897106109303</v>
       </c>
       <c r="F12" s="1">
-        <v>0.69264448336252205</v>
+        <v>0.69963369963370003</v>
       </c>
       <c r="G12" s="1">
-        <v>0.70337301587301604</v>
+        <v>0.74914089347079005</v>
       </c>
       <c r="H12" s="1">
-        <v>0.67954545454545501</v>
+        <v>0.65875370919881304</v>
       </c>
       <c r="I12" s="1">
-        <v>0.60304731355252605</v>
+        <v>0.74409448818897606</v>
       </c>
       <c r="J12" s="1">
-        <v>0.62755798090040904</v>
+        <v>0.74264705882352899</v>
       </c>
       <c r="K12" s="1">
-        <v>0.71511627906976805</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66880888047271581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.76226415094339595</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72791770050128612</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>9.2451543641908446E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2663,51 +2945,59 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.64327485380117</v>
+        <v>0.72597864768683296</v>
       </c>
       <c r="C14" s="1">
-        <v>0.64440589765828304</v>
+        <v>0.69139465875370898</v>
       </c>
       <c r="D14" s="1">
-        <v>0.68020304568527901</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="E14" s="1">
-        <v>0.62347012239020905</v>
+        <v>0.68579234972677605</v>
       </c>
       <c r="F14" s="1">
-        <v>0.62838801711840198</v>
+        <v>0.62820512820512797</v>
       </c>
       <c r="G14" s="1">
-        <v>0.672950047125353</v>
+        <v>0.69817073170731703</v>
       </c>
       <c r="H14" s="1">
-        <v>0.66666666666666696</v>
+        <v>0.64124293785310704</v>
       </c>
       <c r="I14" s="1">
-        <v>0.63006632277081798</v>
+        <v>0.73986486486486502</v>
       </c>
       <c r="J14" s="1">
-        <v>0.62452687358062098</v>
+        <v>0.70707070707070696</v>
       </c>
       <c r="K14" s="1">
-        <v>0.68870292887029305</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.65026547756670949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.69418960244648298</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6952415957428848</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4053714674442607E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2741,56 +3031,64 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.69894534995206103</v>
+        <v>0.67714285714285705</v>
       </c>
       <c r="C16" s="1">
-        <v>0.72079772079772098</v>
+        <v>0.69727891156462596</v>
       </c>
       <c r="D16" s="1">
-        <v>0.719653179190751</v>
+        <v>0.69186046511627897</v>
       </c>
       <c r="E16" s="1">
-        <v>0.63217665615142005</v>
+        <v>0.64806866952789699</v>
       </c>
       <c r="F16" s="1">
-        <v>0.78599735799207404</v>
+        <v>0.65486725663716805</v>
       </c>
       <c r="G16" s="1">
-        <v>0.63630613535736902</v>
+        <v>0.70382165605095504</v>
       </c>
       <c r="H16" s="1">
-        <v>0.69883268482490302</v>
+        <v>0.61866666666666703</v>
       </c>
       <c r="I16" s="1">
-        <v>0.66781767955801097</v>
+        <v>0.66120218579235002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.69346289752650203</v>
+        <v>0.67204301075268802</v>
       </c>
       <c r="K16" s="1">
-        <v>0.65266666666666695</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69066563280174786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.647342995169082</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66722946744205691</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="1"/>
+        <v>6.9779942840511621E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -2799,19 +3097,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2819,56 +3117,64 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11999999999999991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.68904593639575995</v>
+        <v>0.38515901060070701</v>
       </c>
       <c r="C18" s="1">
-        <v>0.72507869884575005</v>
+        <v>0.67663043478260898</v>
       </c>
       <c r="D18" s="1">
-        <v>0.72517552657973905</v>
+        <v>0.73578595317725803</v>
       </c>
       <c r="E18" s="1">
-        <v>0.60821114369501506</v>
+        <v>0.68823529411764695</v>
       </c>
       <c r="F18" s="1">
-        <v>0.73326133909287305</v>
+        <v>0.648484848484848</v>
       </c>
       <c r="G18" s="1">
-        <v>0.73893805309734495</v>
+        <v>0.39715394566623502</v>
       </c>
       <c r="H18" s="1">
-        <v>0.72142170989433196</v>
+        <v>0.67532467532467499</v>
       </c>
       <c r="I18" s="1">
-        <v>0.65275707898658697</v>
+        <v>0.695266272189349</v>
       </c>
       <c r="J18" s="1">
-        <v>0.64983388704318901</v>
+        <v>0.72373540856031104</v>
       </c>
       <c r="K18" s="1">
-        <v>0.68784313725490198</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69315665108854918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.68823529411764695</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.63140111370212859</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6637173014732949E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -2877,19 +3183,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2897,56 +3203,64 @@
       <c r="K19" s="1">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11999999999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.647887323943662</v>
+        <v>0.54394299287410897</v>
       </c>
       <c r="C20" s="1">
-        <v>0.71091445427728595</v>
+        <v>0.72445820433436503</v>
       </c>
       <c r="D20" s="1">
-        <v>0.68130990415335502</v>
+        <v>0.71617161716171596</v>
       </c>
       <c r="E20" s="1">
-        <v>0.63133640552995396</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="F20" s="1">
-        <v>0.69264448336252205</v>
+        <v>0.70329670329670302</v>
       </c>
       <c r="G20" s="1">
-        <v>0.69940476190476197</v>
+        <v>0.32386961093585698</v>
       </c>
       <c r="H20" s="1">
-        <v>0.67741935483870996</v>
+        <v>0.68195718654434201</v>
       </c>
       <c r="I20" s="1">
-        <v>0.60143769968051097</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="J20" s="1">
-        <v>0.63248451479697199</v>
+        <v>0.68539325842696597</v>
       </c>
       <c r="K20" s="1">
-        <v>0.71369294605809097</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66885318485458245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.65013117957962807</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5918927800614411E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -2955,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2975,56 +3289,64 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11999999999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.64597315436241598</v>
+        <v>0.54306220095693802</v>
       </c>
       <c r="C22" s="1">
-        <v>0.66335740072202198</v>
+        <v>0.67679558011049701</v>
       </c>
       <c r="D22" s="1">
-        <v>0.67860116569525397</v>
+        <v>0.70392749244713004</v>
       </c>
       <c r="E22" s="1">
-        <v>0.62210982658959502</v>
+        <v>0.65156794425087095</v>
       </c>
       <c r="F22" s="1">
-        <v>0.62535410764872501</v>
+        <v>0.64820846905537499</v>
       </c>
       <c r="G22" s="1">
-        <v>0.66449814126394002</v>
+        <v>0.27472527472527503</v>
       </c>
       <c r="H22" s="1">
-        <v>0.66847826086956497</v>
+        <v>0.686746987951807</v>
       </c>
       <c r="I22" s="1">
-        <v>0.631153563556209</v>
+        <v>0.70118343195266297</v>
       </c>
       <c r="J22" s="1">
-        <v>0.61234071093225995</v>
+        <v>0.70498084291187701</v>
       </c>
       <c r="K22" s="1">
-        <v>0.69115191986644398</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.65030182515064305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.67867867867867904</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.62698769030411117</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7602048714914491E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -3033,19 +3355,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -3053,633 +3375,701 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11999999999999991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.69894534995206103</v>
+        <v>0.679190751445087</v>
       </c>
       <c r="C24" s="1">
-        <v>0.72079772079772098</v>
+        <v>0.6875</v>
       </c>
       <c r="D24" s="1">
-        <v>0.719653179190751</v>
+        <v>0.68895348837209303</v>
       </c>
       <c r="E24" s="1">
-        <v>0.63217665615142005</v>
+        <v>0.64285714285714302</v>
       </c>
       <c r="F24" s="1">
-        <v>0.78599735799207404</v>
+        <v>0.65486725663716805</v>
       </c>
       <c r="G24" s="1">
-        <v>0.63630613535736902</v>
+        <v>0.70382165605095504</v>
       </c>
       <c r="H24" s="1">
-        <v>0.69883268482490302</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="I24" s="1">
-        <v>0.66781767955801097</v>
+        <v>0.66120218579235002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.69346289752650203</v>
+        <v>0.70718232044198903</v>
       </c>
       <c r="K24" s="1">
-        <v>0.65266666666666695</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69066563280174786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.64423076923076905</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66851901862121688</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8272006535031005E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0.54545454545454497</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>0.30769230769230799</v>
+        <v>0.4</v>
       </c>
       <c r="D25" s="1">
-        <v>0.18181818181818199</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0.44444444444444398</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0.41666666666666702</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0.27272727272727298</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="1">
-        <v>0.38461538461538503</v>
+        <v>0.5</v>
       </c>
       <c r="J25" s="1">
-        <v>0.41666666666666702</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0.30769230769230799</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35777777777777786</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5111111111111125E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.68877099911582695</v>
+        <v>0.69867549668874196</v>
       </c>
       <c r="C26" s="1">
-        <v>0.72565445026177999</v>
+        <v>0.68421052631579005</v>
       </c>
       <c r="D26" s="1">
-        <v>0.72517552657973905</v>
+        <v>0.73754152823920305</v>
       </c>
       <c r="E26" s="1">
-        <v>0.60821114369501506</v>
+        <v>0.68</v>
       </c>
       <c r="F26" s="1">
-        <v>0.73326133909287305</v>
+        <v>0.65432098765432101</v>
       </c>
       <c r="G26" s="1">
-        <v>0.74082313681868694</v>
+        <v>0.71633237822349605</v>
       </c>
       <c r="H26" s="1">
-        <v>0.72142170989433196</v>
+        <v>0.67532467532467499</v>
       </c>
       <c r="I26" s="1">
-        <v>0.65275707898658697</v>
+        <v>0.69653179190751402</v>
       </c>
       <c r="J26" s="1">
-        <v>0.64983388704318901</v>
+        <v>0.73442622950819703</v>
       </c>
       <c r="K26" s="1">
-        <v>0.68784313725490198</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69337524087429314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.68804664723032105</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.69654102610922597</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="1"/>
+        <v>6.9367221223501775E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>0.54545454545454497</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0.30769230769230799</v>
+        <v>0.4</v>
       </c>
       <c r="D27" s="1">
-        <v>0.18181818181818199</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0.44444444444444398</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>0.41666666666666702</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0.27272727272727298</v>
+        <v>0.5</v>
       </c>
       <c r="I27" s="1">
-        <v>0.38461538461538503</v>
+        <v>0.5</v>
       </c>
       <c r="J27" s="1">
-        <v>0.41666666666666702</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0.30769230769230799</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35777777777777786</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5111111111111125E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.64671101256467101</v>
+        <v>0.69418960244648298</v>
       </c>
       <c r="C28" s="1">
-        <v>0.71176470588235297</v>
+        <v>0.72607260726072598</v>
       </c>
       <c r="D28" s="1">
-        <v>0.68130990415335502</v>
+        <v>0.72</v>
       </c>
       <c r="E28" s="1">
-        <v>0.63261296660117905</v>
+        <v>0.71014492753623204</v>
       </c>
       <c r="F28" s="1">
-        <v>0.69264448336252205</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="G28" s="1">
-        <v>0.70178926441351897</v>
+        <v>0.70454545454545503</v>
       </c>
       <c r="H28" s="1">
-        <v>0.675432006010518</v>
+        <v>0.686153846153846</v>
       </c>
       <c r="I28" s="1">
-        <v>0.60351718625099904</v>
+        <v>0.71009771986970704</v>
       </c>
       <c r="J28" s="1">
-        <v>0.63143445435826995</v>
+        <v>0.71186440677966101</v>
       </c>
       <c r="K28" s="1">
-        <v>0.71726438698915795</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66944803705865441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.68372093023255798</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.70551228281580003</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8912958783310152E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>0.54545454545454497</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>0.30769230769230799</v>
+        <v>0.4</v>
       </c>
       <c r="D29" s="1">
-        <v>0.18181818181818199</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.44444444444444398</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0.41666666666666702</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0.27272727272727298</v>
+        <v>0.5</v>
       </c>
       <c r="I29" s="1">
-        <v>0.38461538461538503</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="1">
-        <v>0.41666666666666702</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0.30769230769230799</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35777777777777786</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5111111111111125E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.64978902953586504</v>
+        <v>0.69969040247678005</v>
       </c>
       <c r="C30" s="1">
-        <v>0.64225589225589197</v>
+        <v>0.68902439024390205</v>
       </c>
       <c r="D30" s="1">
-        <v>0.67358803986711002</v>
+        <v>0.70212765957446799</v>
       </c>
       <c r="E30" s="1">
-        <v>0.62292718096611399</v>
+        <v>0.67615658362989295</v>
       </c>
       <c r="F30" s="1">
-        <v>0.62668559261887902</v>
+        <v>0.64724919093851097</v>
       </c>
       <c r="G30" s="1">
-        <v>0.676056338028169</v>
+        <v>0.71551724137931005</v>
       </c>
       <c r="H30" s="1">
-        <v>0.66360153256705001</v>
+        <v>0.67647058823529405</v>
       </c>
       <c r="I30" s="1">
-        <v>0.63027656477438099</v>
+        <v>0.69101123595505598</v>
       </c>
       <c r="J30" s="1">
-        <v>0.62227238525206896</v>
+        <v>0.70322580645161303</v>
       </c>
       <c r="K30" s="1">
-        <v>0.68046357615894004</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.64879161320244694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.68358208955223898</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6884055188437066</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6523252346882238E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>0.54545454545454497</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>0.30769230769230799</v>
+        <v>0.4</v>
       </c>
       <c r="D31" s="1">
-        <v>0.18181818181818199</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.44444444444444398</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>0.41666666666666702</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>0.27272727272727298</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="1">
-        <v>0.38461538461538503</v>
+        <v>0.5</v>
       </c>
       <c r="J31" s="1">
-        <v>0.41666666666666702</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0.30769230769230799</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35777777777777786</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5111111111111125E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>0.69894534995206103</v>
+        <v>0.679190751445087</v>
       </c>
       <c r="C32" s="1">
-        <v>0.72079772079772098</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="D32" s="1">
-        <v>0.719653179190751</v>
+        <v>0.68695652173913002</v>
       </c>
       <c r="E32" s="1">
-        <v>0.63217665615142005</v>
+        <v>0.67910447761194004</v>
       </c>
       <c r="F32" s="1">
-        <v>0.78599735799207404</v>
+        <v>0.65486725663716805</v>
       </c>
       <c r="G32" s="1">
-        <v>0.63630613535736902</v>
+        <v>0.70607028753993595</v>
       </c>
       <c r="H32" s="1">
-        <v>0.69883268482490302</v>
+        <v>0.61375661375661394</v>
       </c>
       <c r="I32" s="1">
-        <v>0.66781767955801097</v>
+        <v>0.66120218579235002</v>
       </c>
       <c r="J32" s="1">
-        <v>0.69346289752650203</v>
+        <v>0.70718232044198903</v>
       </c>
       <c r="K32" s="1">
-        <v>0.65266666666666695</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69066563280174786</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+        <v>0.68632707774798896</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.67716271896819002</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="1"/>
+        <v>7.8767646619550327E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="11">
         <v>1</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="11">
         <v>1</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="11">
         <v>1</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="11">
         <v>1</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="11">
         <v>1</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="11">
         <v>1</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="11">
         <v>1</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="11">
         <v>1</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="11">
         <v>1</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>0.68877099911582695</v>
+        <v>0.69966996699670003</v>
       </c>
       <c r="C34" s="1">
-        <v>0.72489539748954002</v>
+        <v>0.67391304347826098</v>
       </c>
       <c r="D34" s="1">
-        <v>0.72517552657973905</v>
+        <v>0.73754152823920305</v>
       </c>
       <c r="E34" s="1">
-        <v>0.60821114369501506</v>
+        <v>0.75167785234899298</v>
       </c>
       <c r="F34" s="1">
-        <v>0.73326133909287305</v>
+        <v>0.65432098765432101</v>
       </c>
       <c r="G34" s="1">
-        <v>0.74082313681868694</v>
+        <v>0.71802325581395399</v>
       </c>
       <c r="H34" s="1">
-        <v>0.72011661807580196</v>
+        <v>0.67202572347266898</v>
       </c>
       <c r="I34" s="1">
-        <v>0.65421956684092597</v>
+        <v>0.69501466275659796</v>
       </c>
       <c r="J34" s="1">
-        <v>0.64983388704318901</v>
+        <v>0.73529411764705899</v>
       </c>
       <c r="K34" s="1">
-        <v>0.69006309148264999</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69353707062342485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.70538243626062302</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7042863574668381</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="1"/>
+        <v>1.0078161554676051E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0.99184782608695599</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>0.98697916666666696</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0.99503722084367197</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0.99756097560975598</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>0.98342541436464104</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>0.99289099526066305</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>0.99210526315789505</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>0.992307692307692</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0.99282296650717705</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99071203779479777</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="1"/>
+        <v>2.456181149616327E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>0.64671101256467101</v>
+        <v>0.70532915360501602</v>
       </c>
       <c r="C36" s="1">
-        <v>0.71106758080313404</v>
+        <v>0.71473354231974895</v>
       </c>
       <c r="D36" s="1">
-        <v>0.68</v>
+        <v>0.72333333333333305</v>
       </c>
       <c r="E36" s="1">
-        <v>0.63206307490144498</v>
+        <v>0.71903323262839902</v>
       </c>
       <c r="F36" s="1">
-        <v>0.69264448336252205</v>
+        <v>0.70676691729323304</v>
       </c>
       <c r="G36" s="1">
-        <v>0.70629370629370603</v>
+        <v>0.71137026239067103</v>
       </c>
       <c r="H36" s="1">
-        <v>0.67563527653213795</v>
+        <v>0.68292682926829296</v>
       </c>
       <c r="I36" s="1">
-        <v>0.60496794871794901</v>
+        <v>0.72508591065292105</v>
       </c>
       <c r="J36" s="1">
-        <v>0.62773224043715803</v>
+        <v>0.72260273972602695</v>
       </c>
       <c r="K36" s="1">
-        <v>0.713455149501661</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66905704731143845</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.71611819212176431</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="1"/>
+        <v>2.9566425723921035E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>0.99184782608695599</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>0.98697916666666696</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>0.99503722084367197</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0.99756097560975598</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>0.98342541436464104</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>0.99289099526066305</v>
       </c>
       <c r="H37" s="1">
-        <v>1</v>
+        <v>0.99210526315789505</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>0.992307692307692</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0.99282296650717705</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99071203779479777</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="1"/>
+        <v>2.456181149616327E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>0.63893510815307797</v>
+        <v>0.705696202531646</v>
       </c>
       <c r="C38" s="1">
-        <v>0.64436917866215104</v>
+        <v>0.67226890756302504</v>
       </c>
       <c r="D38" s="1">
-        <v>0.67857142857142905</v>
+        <v>0.70820668693009103</v>
       </c>
       <c r="E38" s="1">
-        <v>0.62328271872740404</v>
+        <v>0.70136986301369897</v>
       </c>
       <c r="F38" s="1">
-        <v>0.62936564504632897</v>
+        <v>0.63009404388714696</v>
       </c>
       <c r="G38" s="1">
-        <v>0.67575187969924799</v>
+        <v>0.72058823529411797</v>
       </c>
       <c r="H38" s="1">
-        <v>0.66332819722650205</v>
+        <v>0.67536231884057996</v>
       </c>
       <c r="I38" s="1">
-        <v>0.63316214233308898</v>
+        <v>0.70414201183432001</v>
       </c>
       <c r="J38" s="1">
-        <v>0.62794229309035698</v>
+        <v>0.70779220779220797</v>
       </c>
       <c r="K38" s="1">
-        <v>0.68646864686468601</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="0"/>
-        <v>0.65011772383742739</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.70056497175141197</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.69260854494382462</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="1"/>
+        <v>7.0225308783151389E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0.99184782608695599</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>0.98697916666666696</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.99503722084367197</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>0.99756097560975598</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>0.98342541436464104</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>0.99289099526066305</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>0.99210526315789505</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>0.992307692307692</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0.99282296650717705</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99071203779479777</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="1"/>
+        <v>2.456181149616327E-5</v>
       </c>
     </row>
   </sheetData>
@@ -3690,23 +4080,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3737,287 +4126,318 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="8">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.26571613739468602</v>
+        <v>0.88555858310626701</v>
       </c>
       <c r="C2" s="1">
-        <v>0.14313854235062401</v>
+        <v>1.31926121372032E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.43161290322580698</v>
+        <v>0.236907730673317</v>
       </c>
       <c r="E2" s="1">
-        <v>0.68965517241379304</v>
+        <v>0.36009732360097302</v>
       </c>
       <c r="F2" s="1">
-        <v>6.4599483204134402E-4</v>
+        <v>3.9215686274509803E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>3.3025099075297201E-3</v>
+        <v>0.66348448687350803</v>
       </c>
       <c r="H2" s="1">
-        <v>1.2828736369467599E-2</v>
+        <v>0.35978835978835999</v>
       </c>
       <c r="I2" s="1">
-        <v>0.43501326259946899</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>2.8196721311475399E-2</v>
+        <v>0.12709832134292601</v>
       </c>
       <c r="K2" s="1">
-        <v>0.140431090790333</v>
-      </c>
-      <c r="L2" s="1">
+        <v>2.0671834625322998E-2</v>
+      </c>
+      <c r="L2" s="4">
         <f>AVERAGE(B2:K2)</f>
-        <v>0.21505410711952261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.27060149384223875</v>
+      </c>
+      <c r="M2" s="9">
+        <f>VARA(B2:K2)</f>
+        <v>9.1745580666109203E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.20349967595592999</v>
+        <v>0.31062670299727502</v>
       </c>
       <c r="C3" s="1">
-        <v>0.148391332895601</v>
+        <v>0.48021108179419503</v>
       </c>
       <c r="D3" s="1">
-        <v>0.13483870967741901</v>
+        <v>0.37905236907730699</v>
       </c>
       <c r="E3" s="1">
-        <v>0.21210149642160001</v>
+        <v>0.42092457420924601</v>
       </c>
       <c r="F3" s="1">
-        <v>0.177002583979328</v>
+        <v>0.338935574229692</v>
       </c>
       <c r="G3" s="1">
-        <v>0.14993394980184899</v>
+        <v>0.25536992840095502</v>
       </c>
       <c r="H3" s="1">
-        <v>0.13085311096857</v>
+        <v>0.39947089947089898</v>
       </c>
       <c r="I3" s="1">
-        <v>0.17506631299734801</v>
+        <v>0.30412371134020599</v>
       </c>
       <c r="J3" s="1">
-        <v>0.15475409836065601</v>
+        <v>0.42446043165467601</v>
       </c>
       <c r="K3" s="1">
-        <v>0.20770738079686499</v>
-      </c>
-      <c r="L3" s="1">
+        <v>0.31007751937984501</v>
+      </c>
+      <c r="L3" s="4">
         <f t="shared" ref="L3:L39" si="0">AVERAGE(B3:K3)</f>
-        <v>0.16941486518551657</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.36232527925542957</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M39" si="1">VARA(B3:K3)</f>
+        <v>4.8475365213993295E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.64873622812702503</v>
+        <v>0.20980926430517699</v>
       </c>
       <c r="C4" s="1">
-        <v>0.47406434668417602</v>
+        <v>0.39050131926121401</v>
       </c>
       <c r="D4" s="1">
-        <v>0.29806451612903201</v>
+        <v>0.63840399002493797</v>
       </c>
       <c r="E4" s="1">
-        <v>0.40403383214053301</v>
+        <v>0.45012165450121699</v>
       </c>
       <c r="F4" s="1">
-        <v>0.806201550387597</v>
+        <v>0.63585434173669497</v>
       </c>
       <c r="G4" s="1">
-        <v>0.68163804491413504</v>
+        <v>0.57995226730310301</v>
       </c>
       <c r="H4" s="1">
-        <v>0.30147530468248901</v>
+        <v>0.137566137566138</v>
       </c>
       <c r="I4" s="1">
-        <v>0.68169761273209595</v>
+        <v>0.50257731958762897</v>
       </c>
       <c r="J4" s="1">
-        <v>0.42032786885245899</v>
+        <v>0.400479616306954</v>
       </c>
       <c r="K4" s="1">
-        <v>0.658393207054213</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.53746325117037552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.84754521963824303</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47928111302313081</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4495235121106785E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.38172391445236498</v>
+        <v>0.37329700272479599</v>
       </c>
       <c r="C5" s="1">
-        <v>0.386736703873933</v>
+        <v>0.40897097625329798</v>
       </c>
       <c r="D5" s="1">
-        <v>0.39935483870967697</v>
+        <v>0.371571072319202</v>
       </c>
       <c r="E5" s="1">
-        <v>0.374105400130124</v>
+        <v>0.37712895377128902</v>
       </c>
       <c r="F5" s="1">
-        <v>0.34173126614987098</v>
+        <v>0.39215686274509798</v>
       </c>
       <c r="G5" s="1">
-        <v>0.368560105680317</v>
+        <v>0.326968973747017</v>
       </c>
       <c r="H5" s="1">
-        <v>0.372033354714561</v>
+        <v>0.37830687830687798</v>
       </c>
       <c r="I5" s="1">
-        <v>0.39456233421750703</v>
+        <v>0.37628865979381398</v>
       </c>
       <c r="J5" s="1">
-        <v>0.379016393442623</v>
+        <v>0.38129496402877699</v>
       </c>
       <c r="K5" s="1">
-        <v>0.36381450032658402</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37616388116975619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.37467700258397901</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.37606613462741478</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2394615510090057E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.594944912508101</v>
+        <v>0.768392370572207</v>
       </c>
       <c r="C6" s="1">
-        <v>0.67170059093893597</v>
+        <v>0.60949868073878599</v>
       </c>
       <c r="D6" s="1">
-        <v>0.673548387096774</v>
+        <v>0.78304239401496301</v>
       </c>
       <c r="E6" s="1">
-        <v>0.50813272608978499</v>
+        <v>0.581508515815085</v>
       </c>
       <c r="F6" s="1">
-        <v>0.41214470284237698</v>
+        <v>0.54621848739495804</v>
       </c>
       <c r="G6" s="1">
-        <v>0.65521796565389701</v>
+        <v>0.41527446300715998</v>
       </c>
       <c r="H6" s="1">
-        <v>0.60872354073123802</v>
+        <v>0.51058201058201103</v>
       </c>
       <c r="I6" s="1">
-        <v>0.45954907161803699</v>
+        <v>0.615979381443299</v>
       </c>
       <c r="J6" s="1">
-        <v>0.48918032786885302</v>
+        <v>0.44604316546762601</v>
       </c>
       <c r="K6" s="1">
-        <v>0.73024167210973201</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.58033838974577301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.59173126614987104</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58682707351859653</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4399486656989917E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.36163318211276702</v>
+        <v>0.37329700272479599</v>
       </c>
       <c r="C7" s="1">
-        <v>0.390019697964544</v>
+        <v>0.348284960422164</v>
       </c>
       <c r="D7" s="1">
-        <v>0.39354838709677398</v>
+        <v>0.35660847880299201</v>
       </c>
       <c r="E7" s="1">
-        <v>0.374105400130124</v>
+        <v>0.36496350364963498</v>
       </c>
       <c r="F7" s="1">
-        <v>0.346899224806202</v>
+        <v>0.350140056022409</v>
       </c>
       <c r="G7" s="1">
-        <v>0.37912813738441198</v>
+        <v>0.33412887828162302</v>
       </c>
       <c r="H7" s="1">
-        <v>0.377164849262348</v>
+        <v>0.39153439153439101</v>
       </c>
       <c r="I7" s="1">
-        <v>0.39920424403183002</v>
+        <v>0.38917525773195899</v>
       </c>
       <c r="J7" s="1">
-        <v>0.379672131147541</v>
+        <v>0.34772182254196599</v>
       </c>
       <c r="K7" s="1">
-        <v>0.35989549314173702</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37612707470782791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.36692506459948299</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3622779416311418</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>3.4546201625678915E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.47245625405055103</v>
+        <v>0.64032697547683903</v>
       </c>
       <c r="C8" s="1">
-        <v>0.49835850295469503</v>
+        <v>0.55408970976253302</v>
       </c>
       <c r="D8" s="1">
-        <v>0.48193548387096802</v>
+        <v>0.60598503740648402</v>
       </c>
       <c r="E8" s="1">
-        <v>0.65191932335718905</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="F8" s="1">
-        <v>0.38436692506459902</v>
+        <v>0.62464985994397804</v>
       </c>
       <c r="G8" s="1">
-        <v>0.66446499339498</v>
+        <v>0.52744630071598997</v>
       </c>
       <c r="H8" s="1">
-        <v>0.57601026298909597</v>
+        <v>0.61640211640211595</v>
       </c>
       <c r="I8" s="1">
-        <v>0.64124668435013299</v>
+        <v>0.62371134020618602</v>
       </c>
       <c r="J8" s="1">
-        <v>0.514754098360656</v>
+        <v>0.62350119904076695</v>
       </c>
       <c r="K8" s="1">
-        <v>0.63945133899412199</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.55249638673869894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.66408268733850095</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61468618929600616</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9354724869322724E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -4051,51 +4471,59 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.50486066104990301</v>
+        <v>0.56130790190735702</v>
       </c>
       <c r="C10" s="1">
-        <v>0.45370978332238998</v>
+        <v>0.54617414248021101</v>
       </c>
       <c r="D10" s="1">
-        <v>0.46645161290322601</v>
+        <v>0.56857855361595999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.67469095640858801</v>
+        <v>0.56690997566909995</v>
       </c>
       <c r="F10" s="1">
-        <v>0.43863049095607198</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="G10" s="1">
-        <v>0.44121532364597099</v>
+        <v>0.53221957040572798</v>
       </c>
       <c r="H10" s="1">
-        <v>0.475304682488775</v>
+        <v>0.55820105820105803</v>
       </c>
       <c r="I10" s="1">
-        <v>0.58090185676392603</v>
+        <v>0.55670103092783496</v>
       </c>
       <c r="J10" s="1">
-        <v>0.64131147540983602</v>
+        <v>0.52517985611510798</v>
       </c>
       <c r="K10" s="1">
-        <v>0.57282821685173102</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.52499050598004182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.60465116279069797</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5591351823541626</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>4.9215309493800435E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4129,51 +4557,59 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.56772521062864501</v>
+        <v>0.57220708446866497</v>
       </c>
       <c r="C12" s="1">
-        <v>0.47472094550229799</v>
+        <v>0.57255936675461705</v>
       </c>
       <c r="D12" s="1">
-        <v>0.54903225806451605</v>
+        <v>0.53117206982543597</v>
       </c>
       <c r="E12" s="1">
-        <v>0.62719583604424201</v>
+        <v>0.55474452554744502</v>
       </c>
       <c r="F12" s="1">
-        <v>0.51098191214470301</v>
+        <v>0.53501400560224099</v>
       </c>
       <c r="G12" s="1">
-        <v>0.468295904887715</v>
+        <v>0.52028639618138395</v>
       </c>
       <c r="H12" s="1">
-        <v>0.57536882617062202</v>
+        <v>0.58730158730158699</v>
       </c>
       <c r="I12" s="1">
-        <v>0.49867374005304999</v>
+        <v>0.48711340206185599</v>
       </c>
       <c r="J12" s="1">
-        <v>0.60327868852458999</v>
+        <v>0.48441247002398102</v>
       </c>
       <c r="K12" s="1">
-        <v>0.56237753102547405</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54376508530458545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.52196382428940602</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53667747320566184</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2383940040776985E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4207,51 +4643,59 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.49902786779001901</v>
+        <v>0.55585831062670299</v>
       </c>
       <c r="C14" s="1">
-        <v>0.487852921864741</v>
+        <v>0.614775725593668</v>
       </c>
       <c r="D14" s="1">
-        <v>0.51870967741935503</v>
+        <v>0.58354114713216998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.56343526350032502</v>
+        <v>0.61070559610705599</v>
       </c>
       <c r="F14" s="1">
-        <v>0.56912144702842404</v>
+        <v>0.54901960784313697</v>
       </c>
       <c r="G14" s="1">
-        <v>0.471598414795244</v>
+        <v>0.54653937947494002</v>
       </c>
       <c r="H14" s="1">
-        <v>0.55420141116100097</v>
+        <v>0.60052910052910102</v>
       </c>
       <c r="I14" s="1">
-        <v>0.56697612732095504</v>
+        <v>0.56443298969072198</v>
       </c>
       <c r="J14" s="1">
-        <v>0.54098360655737698</v>
+        <v>0.50359712230215803</v>
       </c>
       <c r="K14" s="1">
-        <v>0.53755715218811195</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5309463889625553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.58656330749354002</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57155622867931943</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1842470220987853E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -4285,56 +4729,64 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.47245625405055103</v>
+        <v>0.64577656675749295</v>
       </c>
       <c r="C16" s="1">
-        <v>0.49835850295469503</v>
+        <v>0.54089709762533</v>
       </c>
       <c r="D16" s="1">
-        <v>0.48193548387096802</v>
+        <v>0.59351620947630901</v>
       </c>
       <c r="E16" s="1">
-        <v>0.65191932335718905</v>
+        <v>0.36739659367396599</v>
       </c>
       <c r="F16" s="1">
-        <v>0.38436692506459902</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="G16" s="1">
-        <v>0.66446499339498</v>
+        <v>0.52744630071598997</v>
       </c>
       <c r="H16" s="1">
-        <v>0.57601026298909597</v>
+        <v>0.61375661375661394</v>
       </c>
       <c r="I16" s="1">
-        <v>0.64124668435013299</v>
+        <v>0.62371134020618602</v>
       </c>
       <c r="J16" s="1">
-        <v>0.514754098360656</v>
+        <v>0.29976019184652303</v>
       </c>
       <c r="K16" s="1">
-        <v>0.63945133899412199</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.55249638673869894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.34625322997416003</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51803628835283677</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="1"/>
+        <v>1.706430838997846E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>6.4808813998703803E-4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -4343,19 +4795,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>6.5061808718282405E-4</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>6.6050198150594496E-4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>6.6312997347480103E-4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -4363,56 +4815,64 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6223381821506082E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.50550874918988997</v>
+        <v>0.59400544959128099</v>
       </c>
       <c r="C18" s="1">
-        <v>0.45370978332238998</v>
+        <v>0.65699208443271795</v>
       </c>
       <c r="D18" s="1">
-        <v>0.46645161290322601</v>
+        <v>0.54862842892768104</v>
       </c>
       <c r="E18" s="1">
-        <v>0.67469095640858801</v>
+        <v>0.28467153284671498</v>
       </c>
       <c r="F18" s="1">
-        <v>0.43863049095607198</v>
+        <v>0.59943977591036401</v>
       </c>
       <c r="G18" s="1">
-        <v>0.44121532364597099</v>
+        <v>0.73269689737470201</v>
       </c>
       <c r="H18" s="1">
-        <v>0.48171905067350901</v>
+        <v>0.55026455026455001</v>
       </c>
       <c r="I18" s="1">
-        <v>0.58090185676392603</v>
+        <v>0.60567010309278302</v>
       </c>
       <c r="J18" s="1">
-        <v>0.64131147540983602</v>
+        <v>0.44604316546762601</v>
       </c>
       <c r="K18" s="1">
-        <v>0.57282821685173102</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.52569675161251384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.60465116279069797</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5623063150699118</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4998428851787458E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>6.4808813998703803E-4</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -4421,19 +4881,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>6.5061808718282405E-4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>6.6050198150594496E-4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>6.6312997347480103E-4</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -4441,56 +4901,64 @@
       <c r="K19" s="1">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6223381821506082E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.56642903434867098</v>
+        <v>0.62397820163487705</v>
       </c>
       <c r="C20" s="1">
-        <v>0.47472094550229799</v>
+        <v>0.617414248021108</v>
       </c>
       <c r="D20" s="1">
-        <v>0.55032258064516104</v>
+        <v>0.541147132169576</v>
       </c>
       <c r="E20" s="1">
-        <v>0.62394274560832796</v>
+        <v>0.46228710462287098</v>
       </c>
       <c r="F20" s="1">
-        <v>0.51098191214470301</v>
+        <v>0.53781512605042003</v>
       </c>
       <c r="G20" s="1">
-        <v>0.46565389696169102</v>
+        <v>0.73508353221957001</v>
       </c>
       <c r="H20" s="1">
-        <v>0.57921744708146305</v>
+        <v>0.58994708994709</v>
       </c>
       <c r="I20" s="1">
-        <v>0.49933687002652499</v>
+        <v>0.536082474226804</v>
       </c>
       <c r="J20" s="1">
-        <v>0.60262295081967199</v>
+        <v>0.43884892086330901</v>
       </c>
       <c r="K20" s="1">
-        <v>0.56172436316133201</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54349527462998437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.372093023255814</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54546968530114393</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="1"/>
+        <v>1.0864827807041393E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>6.4808813998703803E-4</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -4499,19 +4967,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>6.5061808718282405E-4</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>6.6050198150594496E-4</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>6.6312997347480103E-4</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -4519,56 +4987,64 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6223381821506082E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.49902786779001901</v>
+        <v>0.61852861035422302</v>
       </c>
       <c r="C22" s="1">
-        <v>0.48260013131976398</v>
+        <v>0.64643799472295504</v>
       </c>
       <c r="D22" s="1">
-        <v>0.52580645161290296</v>
+        <v>0.581047381546135</v>
       </c>
       <c r="E22" s="1">
-        <v>0.56018217306441098</v>
+        <v>0.45498783454987801</v>
       </c>
       <c r="F22" s="1">
-        <v>0.57041343669250599</v>
+        <v>0.55742296918767498</v>
       </c>
       <c r="G22" s="1">
-        <v>0.47225891677675003</v>
+        <v>0.71599045346062096</v>
       </c>
       <c r="H22" s="1">
-        <v>0.55227710070558</v>
+        <v>0.60317460317460303</v>
       </c>
       <c r="I22" s="1">
-        <v>0.56962864721485396</v>
+        <v>0.61082474226804095</v>
       </c>
       <c r="J22" s="1">
-        <v>0.59868852459016397</v>
+        <v>0.44124700239808101</v>
       </c>
       <c r="K22" s="1">
-        <v>0.54082299150881796</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.53717062412757688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.58397932816537501</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58136409198275862</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="1"/>
+        <v>6.8075082361085887E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>6.4808813998703803E-4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -4577,19 +5053,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>6.5061808718282405E-4</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>6.6050198150594496E-4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>6.6312997347480103E-4</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -4597,524 +5073,580 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6223381821506082E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.47245625405055103</v>
+        <v>0.64032697547683903</v>
       </c>
       <c r="C24" s="1">
-        <v>0.49835850295469503</v>
+        <v>0.49340369393139799</v>
       </c>
       <c r="D24" s="1">
-        <v>0.48193548387096802</v>
+        <v>0.59102244389027403</v>
       </c>
       <c r="E24" s="1">
-        <v>0.65191932335718905</v>
+        <v>0.372262773722628</v>
       </c>
       <c r="F24" s="1">
-        <v>0.38436692506459902</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="G24" s="1">
-        <v>0.66446499339498</v>
+        <v>0.52744630071598997</v>
       </c>
       <c r="H24" s="1">
-        <v>0.57601026298909597</v>
+        <v>0.61375661375661394</v>
       </c>
       <c r="I24" s="1">
-        <v>0.64124668435013299</v>
+        <v>0.62371134020618602</v>
       </c>
       <c r="J24" s="1">
-        <v>0.514754098360656</v>
+        <v>0.61390887290167895</v>
       </c>
       <c r="K24" s="1">
-        <v>0.63945133899412199</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.55249638673869894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.34625322997416003</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54439409840715658</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1676386006997644E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>3.8885288399222299E-3</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>2.6263952724885102E-3</v>
+        <v>5.2770448548812698E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>1.29032258064516E-3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>2.6024723487312901E-3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>3.2299741602067199E-3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>1.98150594451783E-3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1.92431045542014E-3</v>
+        <v>2.6455026455026402E-3</v>
       </c>
       <c r="I25" s="1">
-        <v>3.3156498673740098E-3</v>
+        <v>2.5773195876288698E-3</v>
       </c>
       <c r="J25" s="1">
-        <v>3.27868852459016E-3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>2.6126714565643402E-3</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6750519450460392E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.1679586563307496E-3</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>1.566782574434353E-3</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8497981358442592E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.50486066104990301</v>
+        <v>0.57493188010899199</v>
       </c>
       <c r="C26" s="1">
-        <v>0.45502298095863403</v>
+        <v>0.617414248021108</v>
       </c>
       <c r="D26" s="1">
-        <v>0.46645161290322601</v>
+        <v>0.553615960099751</v>
       </c>
       <c r="E26" s="1">
-        <v>0.67469095640858801</v>
+        <v>0.289537712895377</v>
       </c>
       <c r="F26" s="1">
-        <v>0.43863049095607198</v>
+        <v>0.59383753501400605</v>
       </c>
       <c r="G26" s="1">
-        <v>0.439894319682959</v>
+        <v>0.59665871121718395</v>
       </c>
       <c r="H26" s="1">
-        <v>0.48171905067350901</v>
+        <v>0.55026455026455001</v>
       </c>
       <c r="I26" s="1">
-        <v>0.58090185676392603</v>
+        <v>0.62113402061855705</v>
       </c>
       <c r="J26" s="1">
-        <v>0.64131147540983602</v>
+        <v>0.53717026378896904</v>
       </c>
       <c r="K26" s="1">
-        <v>0.57282821685173102</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.52563116216583838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.60981912144702799</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55443840034755232</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="1"/>
+        <v>9.5249751981642105E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>3.8885288399222299E-3</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>2.6263952724885102E-3</v>
+        <v>5.2770448548812698E-3</v>
       </c>
       <c r="D27" s="1">
-        <v>1.29032258064516E-3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>2.6024723487312901E-3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>3.2299741602067199E-3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>1.98150594451783E-3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1.92431045542014E-3</v>
+        <v>2.6455026455026402E-3</v>
       </c>
       <c r="I27" s="1">
-        <v>3.3156498673740098E-3</v>
+        <v>2.5773195876288698E-3</v>
       </c>
       <c r="J27" s="1">
-        <v>3.27868852459016E-3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>2.6126714565643402E-3</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6750519450460392E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.1679586563307496E-3</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.566782574434353E-3</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8497981358442592E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.56707712248865805</v>
+        <v>0.61852861035422302</v>
       </c>
       <c r="C28" s="1">
-        <v>0.476690741956664</v>
+        <v>0.58047493403693895</v>
       </c>
       <c r="D28" s="1">
-        <v>0.55032258064516104</v>
+        <v>0.53865336658354102</v>
       </c>
       <c r="E28" s="1">
-        <v>0.62849707221860796</v>
+        <v>0.47688564476885598</v>
       </c>
       <c r="F28" s="1">
-        <v>0.51098191214470301</v>
+        <v>0.52380952380952395</v>
       </c>
       <c r="G28" s="1">
-        <v>0.46631439894319698</v>
+        <v>0.59188544152744604</v>
       </c>
       <c r="H28" s="1">
-        <v>0.57665169980756903</v>
+        <v>0.58994708994709</v>
       </c>
       <c r="I28" s="1">
-        <v>0.50066312997347495</v>
+        <v>0.56185567010309301</v>
       </c>
       <c r="J28" s="1">
-        <v>0.60327868852458999</v>
+        <v>0.50359712230215803</v>
       </c>
       <c r="K28" s="1">
-        <v>0.56172436316133201</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54422017098639563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.37984496124030998</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53654823646731808</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="1"/>
+        <v>4.9524966765352512E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>3.8885288399222299E-3</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>2.6263952724885102E-3</v>
+        <v>5.2770448548812698E-3</v>
       </c>
       <c r="D29" s="1">
-        <v>1.29032258064516E-3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>2.6024723487312901E-3</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>3.2299741602067199E-3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1.98150594451783E-3</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>1.92431045542014E-3</v>
+        <v>2.6455026455026402E-3</v>
       </c>
       <c r="I29" s="1">
-        <v>3.3156498673740098E-3</v>
+        <v>2.5773195876288698E-3</v>
       </c>
       <c r="J29" s="1">
-        <v>3.27868852459016E-3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>2.6126714565643402E-3</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6750519450460392E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.1679586563307496E-3</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.566782574434353E-3</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8497981358442592E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.49902786779001901</v>
+        <v>0.615803814713896</v>
       </c>
       <c r="C30" s="1">
-        <v>0.50098489822718295</v>
+        <v>0.59630606860158297</v>
       </c>
       <c r="D30" s="1">
-        <v>0.52322580645161298</v>
+        <v>0.57605985037406504</v>
       </c>
       <c r="E30" s="1">
-        <v>0.56213402732595996</v>
+        <v>0.46228710462287098</v>
       </c>
       <c r="F30" s="1">
-        <v>0.57041343669250599</v>
+        <v>0.56022408963585402</v>
       </c>
       <c r="G30" s="1">
-        <v>0.47556142668427998</v>
+        <v>0.59427207637231505</v>
       </c>
       <c r="H30" s="1">
-        <v>0.55548428479794698</v>
+        <v>0.60846560846560804</v>
       </c>
       <c r="I30" s="1">
-        <v>0.57427055702917795</v>
+        <v>0.634020618556701</v>
       </c>
       <c r="J30" s="1">
-        <v>0.54229508196721299</v>
+        <v>0.52278177458033603</v>
       </c>
       <c r="K30" s="1">
-        <v>0.53690398432397102</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.53403013712898706</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.59173126614987104</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57619522720731009</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="1"/>
+        <v>2.5566370437040738E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>3.8885288399222299E-3</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>2.6263952724885102E-3</v>
+        <v>5.2770448548812698E-3</v>
       </c>
       <c r="D31" s="1">
-        <v>1.29032258064516E-3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>2.6024723487312901E-3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>3.2299741602067199E-3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>1.98150594451783E-3</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>1.92431045542014E-3</v>
+        <v>2.6455026455026402E-3</v>
       </c>
       <c r="I31" s="1">
-        <v>3.3156498673740098E-3</v>
+        <v>2.5773195876288698E-3</v>
       </c>
       <c r="J31" s="1">
-        <v>3.27868852459016E-3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>2.6126714565643402E-3</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6750519450460392E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.1679586563307496E-3</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="0"/>
+        <v>1.566782574434353E-3</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8497981358442592E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>0.47245625405055103</v>
+        <v>0.64032697547683903</v>
       </c>
       <c r="C32" s="1">
-        <v>0.49835850295469503</v>
+        <v>0.54617414248021101</v>
       </c>
       <c r="D32" s="1">
-        <v>0.48193548387096802</v>
+        <v>0.59102244389027403</v>
       </c>
       <c r="E32" s="1">
-        <v>0.65191932335718905</v>
+        <v>0.66423357664233595</v>
       </c>
       <c r="F32" s="1">
-        <v>0.38436692506459902</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="G32" s="1">
-        <v>0.66446499339498</v>
+        <v>0.52744630071598997</v>
       </c>
       <c r="H32" s="1">
-        <v>0.57601026298909597</v>
+        <v>0.61375661375661394</v>
       </c>
       <c r="I32" s="1">
-        <v>0.64124668435013299</v>
+        <v>0.62371134020618602</v>
       </c>
       <c r="J32" s="1">
-        <v>0.514754098360656</v>
+        <v>0.61390887290167895</v>
       </c>
       <c r="K32" s="1">
-        <v>0.63945133899412199</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.55249638673869894</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+        <v>0.66149870801033595</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61039277135762626</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0131518235565475E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>0.99935191186001304</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.99803020354563399</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.99806451612903202</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.99804814573845202</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.99935400516795903</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.99801849405548204</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.99807568954458004</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.99801061007957603</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.99803278688524599</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.99869366427171802</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99836800272776904</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>0.99455040871934597</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.99513381995133798</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.99719887955182096</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.99735449735449699</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.99742268041237103</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.995203836930456</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.99483204134366898</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="0"/>
+        <v>0.99716961642634971</v>
+      </c>
+      <c r="M33" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9406171983153356E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>0.50486066104990301</v>
+        <v>0.577656675749319</v>
       </c>
       <c r="C34" s="1">
-        <v>0.45502298095863403</v>
+        <v>0.65435356200527695</v>
       </c>
       <c r="D34" s="1">
-        <v>0.46645161290322601</v>
+        <v>0.553615960099751</v>
       </c>
       <c r="E34" s="1">
-        <v>0.67469095640858801</v>
+        <v>0.54501216545012199</v>
       </c>
       <c r="F34" s="1">
-        <v>0.43863049095607198</v>
+        <v>0.59383753501400605</v>
       </c>
       <c r="G34" s="1">
-        <v>0.439894319682959</v>
+        <v>0.58949880668257804</v>
       </c>
       <c r="H34" s="1">
-        <v>0.475304682488775</v>
+        <v>0.55291005291005302</v>
       </c>
       <c r="I34" s="1">
-        <v>0.58090185676392603</v>
+        <v>0.61082474226804095</v>
       </c>
       <c r="J34" s="1">
-        <v>0.64131147540983602</v>
+        <v>0.53956834532374098</v>
       </c>
       <c r="K34" s="1">
-        <v>0.57152188112344904</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.52485909177453682</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.64341085271317799</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58606886982160655</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6341430316449564E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
+        <v>0.99455040871934597</v>
+      </c>
+      <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="1">
-        <v>0.99934340118187803</v>
-      </c>
       <c r="D35" s="1">
-        <v>0.99935483870967801</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.99934938191281697</v>
+        <v>0.99513381995133798</v>
       </c>
       <c r="F35" s="1">
-        <v>0.99935400516795903</v>
+        <v>0.99719887955182096</v>
       </c>
       <c r="G35" s="1">
-        <v>0.99933949801849398</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>0.99935856318152705</v>
+        <v>0.99735449735449699</v>
       </c>
       <c r="I35" s="1">
-        <v>0.99933687002652505</v>
+        <v>0.99742268041237103</v>
       </c>
       <c r="J35" s="1">
-        <v>0.999344262295082</v>
+        <v>0.995203836930456</v>
       </c>
       <c r="K35" s="1">
-        <v>0.99934683213585895</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99941276526298173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.99483204134366898</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99716961642634971</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="1"/>
+        <v>4.9406171983153356E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>0.56707712248865805</v>
+        <v>0.61307901907356899</v>
       </c>
       <c r="C36" s="1">
-        <v>0.476690741956664</v>
+        <v>0.60158311345646398</v>
       </c>
       <c r="D36" s="1">
-        <v>0.54838709677419395</v>
+        <v>0.541147132169576</v>
       </c>
       <c r="E36" s="1">
-        <v>0.62589459986987594</v>
+        <v>0.57907542579075399</v>
       </c>
       <c r="F36" s="1">
-        <v>0.51098191214470301</v>
+        <v>0.52661064425770299</v>
       </c>
       <c r="G36" s="1">
-        <v>0.46697490092470301</v>
+        <v>0.58233890214797102</v>
       </c>
       <c r="H36" s="1">
-        <v>0.57985888389993601</v>
+        <v>0.592592592592593</v>
       </c>
       <c r="I36" s="1">
-        <v>0.50066312997347495</v>
+        <v>0.54381443298969101</v>
       </c>
       <c r="J36" s="1">
-        <v>0.60262295081967199</v>
+        <v>0.50599520383692997</v>
       </c>
       <c r="K36" s="1">
-        <v>0.56107119529719096</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54402225341490718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.54263565891472898</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.562887212522998</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2598493078778336E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>0.99455040871934597</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -5123,76 +5655,84 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0.99513381995133798</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>0.99719887955182096</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>1</v>
+        <v>0.99735449735449699</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>0.99742268041237103</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0.995203836930456</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.99483204134366898</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99716961642634971</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="1"/>
+        <v>4.9406171983153356E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>0.49773169151004498</v>
+        <v>0.60762942779291595</v>
       </c>
       <c r="C38" s="1">
-        <v>0.49967170059093902</v>
+        <v>0.63324538258575203</v>
       </c>
       <c r="D38" s="1">
-        <v>0.52709677419354795</v>
+        <v>0.581047381546135</v>
       </c>
       <c r="E38" s="1">
-        <v>0.56083279115159401</v>
+        <v>0.62287104622871003</v>
       </c>
       <c r="F38" s="1">
-        <v>0.57041343669250599</v>
+        <v>0.56302521008403394</v>
       </c>
       <c r="G38" s="1">
-        <v>0.47490092470277401</v>
+        <v>0.58472553699284002</v>
       </c>
       <c r="H38" s="1">
-        <v>0.55227710070558</v>
+        <v>0.61640211640211595</v>
       </c>
       <c r="I38" s="1">
-        <v>0.57228116710875299</v>
+        <v>0.61340206185567003</v>
       </c>
       <c r="J38" s="1">
-        <v>0.54229508196721299</v>
+        <v>0.52278177458033603</v>
       </c>
       <c r="K38" s="1">
-        <v>0.54343566296538204</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5340936331588334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.64082687338501299</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.59859568114535222</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3005117711572594E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0.99455040871934597</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -5201,29 +5741,33 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>0.99513381995133798</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>0.99719887955182096</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>0.99735449735449699</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>0.99742268041237103</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0.995203836930456</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99483204134366898</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99716961642634971</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="1"/>
+        <v>4.9406171983153356E-6</v>
       </c>
     </row>
   </sheetData>
@@ -5234,22 +5778,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5280,287 +5824,318 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="8">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.29432878679109797</v>
+        <v>0.254802038416307</v>
       </c>
       <c r="C2" s="1">
-        <v>0.15325131810193299</v>
+        <v>2.2779043280182199E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.20673671199011101</v>
+        <v>0.25333333333333302</v>
       </c>
       <c r="E2" s="1">
-        <v>0.24979380228584899</v>
+        <v>0.19473684210526301</v>
       </c>
       <c r="F2" s="1">
-        <v>1.2771392081736899E-3</v>
+        <v>6.7469879518072304E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>6.55307994757536E-3</v>
+        <v>0.24418093983311401</v>
       </c>
       <c r="H2" s="1">
-        <v>2.4345709068776599E-2</v>
+        <v>0.21953188054882999</v>
       </c>
       <c r="I2" s="1">
-        <v>0.208917197452229</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>4.3632673769660103E-2</v>
+        <v>0.16562499999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>0.102551872167899</v>
-      </c>
-      <c r="L2" s="1">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="L2" s="4">
         <f>AVERAGE(B2:K2)</f>
-        <v>0.12913882907833049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.14563572621198473</v>
+      </c>
+      <c r="M2" s="9">
+        <f>VARA(B2:K2)</f>
+        <v>1.0710781095749097E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.324212700051626</v>
+        <v>0.44705882352941201</v>
       </c>
       <c r="C3" s="1">
-        <v>0.25055432372505498</v>
+        <v>0.60165289256198395</v>
       </c>
       <c r="D3" s="1">
-        <v>0.229418221734358</v>
+        <v>0.50247933884297502</v>
       </c>
       <c r="E3" s="1">
-        <v>0.33130081300813002</v>
+        <v>0.53643410852713203</v>
       </c>
       <c r="F3" s="1">
-        <v>0.28902953586497898</v>
+        <v>0.456603773584906</v>
       </c>
       <c r="G3" s="1">
-        <v>0.25152354570637098</v>
+        <v>0.38698010849909598</v>
       </c>
       <c r="H3" s="1">
-        <v>0.22591362126245801</v>
+        <v>0.51013513513513498</v>
       </c>
       <c r="I3" s="1">
-        <v>0.28175026680896498</v>
+        <v>0.42753623188405798</v>
       </c>
       <c r="J3" s="1">
-        <v>0.25596529284164798</v>
+        <v>0.52835820895522401</v>
       </c>
       <c r="K3" s="1">
-        <v>0.32902224521469198</v>
-      </c>
-      <c r="L3" s="1">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="L3" s="4">
         <f t="shared" ref="L3:L39" si="0">AVERAGE(B3:K3)</f>
-        <v>0.2768690566218282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.48320212302155741</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M39" si="1">VARA(B3:K3)</f>
+        <v>4.0795473941279935E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.301279157261099</v>
+        <v>0.107466852756455</v>
       </c>
       <c r="C4" s="1">
-        <v>0.27935770942155103</v>
+        <v>0.17587641117052899</v>
       </c>
       <c r="D4" s="1">
-        <v>0.15784079262043099</v>
+        <v>0.26625065002600101</v>
       </c>
       <c r="E4" s="1">
-        <v>0.213659040082574</v>
+        <v>0.195974576271187</v>
       </c>
       <c r="F4" s="1">
-        <v>0.30170433941738201</v>
+        <v>0.230456852791878</v>
       </c>
       <c r="G4" s="1">
-        <v>0.31372549019607798</v>
+        <v>0.29634146341463402</v>
       </c>
       <c r="H4" s="1">
-        <v>0.24775962045334701</v>
+        <v>8.7321578505457603E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0.38509084098145702</v>
+        <v>0.30952380952380898</v>
       </c>
       <c r="J4" s="1">
-        <v>0.24606525911708199</v>
+        <v>0.30171635049683798</v>
       </c>
       <c r="K4" s="1">
-        <v>0.39529411764705902</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.284177636719806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.39094159713945198</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23618701420962407</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="1"/>
+        <v>9.1289757802585324E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.50449678800856501</v>
+        <v>0.50929368029739797</v>
       </c>
       <c r="C5" s="1">
-        <v>0.51351351351351304</v>
+        <v>0.54577464788732399</v>
       </c>
       <c r="D5" s="1">
-        <v>0.51755852842809402</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
-        <v>0.49590340664079402</v>
+        <v>0.50570962479608506</v>
       </c>
       <c r="F5" s="1">
-        <v>0.46876384581302599</v>
+        <v>0.50089445438282598</v>
       </c>
       <c r="G5" s="1">
-        <v>0.49402390438247001</v>
+        <v>0.46757679180887401</v>
       </c>
       <c r="H5" s="1">
-        <v>0.499354283254412</v>
+        <v>0.49480968858131502</v>
       </c>
       <c r="I5" s="1">
-        <v>0.50898203592814395</v>
+        <v>0.50258175559380402</v>
       </c>
       <c r="J5" s="1">
-        <v>0.49978383052313002</v>
+        <v>0.50961538461538503</v>
       </c>
       <c r="K5" s="1">
-        <v>0.49270234409553298</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.49950824805876809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49742710120068601</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.50336831291636974</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6506445345726638E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.31427593289969202</v>
+        <v>0.41048034934497801</v>
       </c>
       <c r="C6" s="1">
-        <v>0.39875267978951501</v>
+        <v>0.27467300832342401</v>
       </c>
       <c r="D6" s="1">
-        <v>0.356496499914632</v>
+        <v>0.57880184331797202</v>
       </c>
       <c r="E6" s="1">
-        <v>0.38144078144078097</v>
+        <v>0.34339080459770099</v>
       </c>
       <c r="F6" s="1">
-        <v>0.27235859124866602</v>
+        <v>0.40880503144654101</v>
       </c>
       <c r="G6" s="1">
-        <v>0.400727125833165</v>
+        <v>0.29566694987255698</v>
       </c>
       <c r="H6" s="1">
-        <v>0.26014254385964902</v>
+        <v>0.39148073022312402</v>
       </c>
       <c r="I6" s="1">
-        <v>0.39668002289639398</v>
+        <v>0.32428765264586201</v>
       </c>
       <c r="J6" s="1">
-        <v>0.30775577557755801</v>
+        <v>0.28224582701062201</v>
       </c>
       <c r="K6" s="1">
-        <v>0.33438014057125798</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34230100940313102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.31434454358270397</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3624176740365484</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="1"/>
+        <v>8.3153149324895412E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.48840262582056898</v>
+        <v>0.51310861423220999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.51742160278745597</v>
+        <v>0.48798521256931598</v>
       </c>
       <c r="D7" s="1">
-        <v>0.51629284807448195</v>
+        <v>0.48392554991539799</v>
       </c>
       <c r="E7" s="1">
-        <v>0.49590340664079402</v>
+        <v>0.49342105263157898</v>
       </c>
       <c r="F7" s="1">
-        <v>0.47522123893805301</v>
+        <v>0.46992481203007502</v>
       </c>
       <c r="G7" s="1">
-        <v>0.50550418317921597</v>
+        <v>0.47058823529411797</v>
       </c>
       <c r="H7" s="1">
-        <v>0.50299401197604798</v>
+        <v>0.50425894378194203</v>
       </c>
       <c r="I7" s="1">
-        <v>0.51234042553191494</v>
+        <v>0.51535836177474403</v>
       </c>
       <c r="J7" s="1">
-        <v>0.50151580770896498</v>
+        <v>0.48414023372287102</v>
       </c>
       <c r="K7" s="1">
-        <v>0.48869179600886897</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.50042879466663659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.492201039861352</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49149120558136056</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4775647024411743E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.56380510440835296</v>
+        <v>0.65918653576437602</v>
       </c>
       <c r="C8" s="1">
-        <v>0.58928571428571397</v>
+        <v>0.616740088105727</v>
       </c>
       <c r="D8" s="1">
-        <v>0.57727975270479104</v>
+        <v>0.64200792602377799</v>
       </c>
       <c r="E8" s="1">
-        <v>0.64189622037155702</v>
+        <v>0.67156862745098</v>
       </c>
       <c r="F8" s="1">
-        <v>0.51626898047722303</v>
+        <v>0.638968481375358</v>
       </c>
       <c r="G8" s="1">
-        <v>0.65008077544426501</v>
+        <v>0.60382513661202197</v>
       </c>
       <c r="H8" s="1">
-        <v>0.63150492264416302</v>
+        <v>0.61396574440052698</v>
       </c>
       <c r="I8" s="1">
-        <v>0.65426251691475001</v>
+        <v>0.64190981432360705</v>
       </c>
       <c r="J8" s="1">
-        <v>0.59089198343996996</v>
+        <v>0.661577608142494</v>
       </c>
       <c r="K8" s="1">
-        <v>0.64599142197294601</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.60612673926637339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.67542706964520405</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.64251770318440737</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="1"/>
+        <v>6.1757260363926362E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -5594,51 +6169,59 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.58264771877337296</v>
+        <v>0.62048192771084298</v>
       </c>
       <c r="C10" s="1">
-        <v>0.55793298344771902</v>
+        <v>0.61424332344213595</v>
       </c>
       <c r="D10" s="1">
-        <v>0.56772673733804502</v>
+        <v>0.64406779661017</v>
       </c>
       <c r="E10" s="1">
-        <v>0.63972856261566902</v>
+        <v>0.64099037138927095</v>
       </c>
       <c r="F10" s="1">
-        <v>0.54890864995958</v>
+        <v>0.61353383458646604</v>
       </c>
       <c r="G10" s="1">
-        <v>0.55252274607113305</v>
+        <v>0.63352272727272696</v>
       </c>
       <c r="H10" s="1">
-        <v>0.57264296754250399</v>
+        <v>0.60028449502133696</v>
       </c>
       <c r="I10" s="1">
-        <v>0.61473684210526303</v>
+        <v>0.63716814159292001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.64554455445544601</v>
+        <v>0.61690140845070396</v>
       </c>
       <c r="K10" s="1">
-        <v>0.62508909479686403</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59074808571055959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.662889518413598</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.62840835444901721</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>3.448283987045565E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5672,51 +6255,59 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.60455486542443004</v>
+        <v>0.635400907715583</v>
       </c>
       <c r="C12" s="1">
-        <v>0.56906729634002295</v>
+        <v>0.64872944693572498</v>
       </c>
       <c r="D12" s="1">
-        <v>0.60655737704918</v>
+        <v>0.61383285302593704</v>
       </c>
       <c r="E12" s="1">
-        <v>0.62985952303168902</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="F12" s="1">
-        <v>0.58810408921933099</v>
+        <v>0.60634920634920597</v>
       </c>
       <c r="G12" s="1">
-        <v>0.56225218080888195</v>
+        <v>0.61408450704225404</v>
       </c>
       <c r="H12" s="1">
-        <v>0.62313303230288297</v>
+        <v>0.62097902097902102</v>
       </c>
       <c r="I12" s="1">
-        <v>0.545916515426497</v>
+        <v>0.58878504672897203</v>
       </c>
       <c r="J12" s="1">
-        <v>0.61517886994316295</v>
+        <v>0.58635703918722804</v>
       </c>
       <c r="K12" s="1">
-        <v>0.62961608775137101</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59742398372974492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.619631901840491</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61657288771728391</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>3.8287523779974731E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5750,51 +6341,59 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.56204379562043805</v>
+        <v>0.62962962962962998</v>
       </c>
       <c r="C14" s="1">
-        <v>0.55530642750373704</v>
+        <v>0.65083798882681598</v>
       </c>
       <c r="D14" s="1">
-        <v>0.588579795021962</v>
+        <v>0.65271966527196701</v>
       </c>
       <c r="E14" s="1">
-        <v>0.59193438140806598</v>
+        <v>0.64607464607464604</v>
       </c>
       <c r="F14" s="1">
-        <v>0.59728813559322103</v>
+        <v>0.58594917787742895</v>
       </c>
       <c r="G14" s="1">
-        <v>0.55456310679611598</v>
+        <v>0.61311914323962502</v>
       </c>
       <c r="H14" s="1">
-        <v>0.60525394045534198</v>
+        <v>0.62021857923497303</v>
       </c>
       <c r="I14" s="1">
-        <v>0.59685863874345502</v>
+        <v>0.640350877192982</v>
       </c>
       <c r="J14" s="1">
-        <v>0.57976106816584705</v>
+        <v>0.58823529411764697</v>
       </c>
       <c r="K14" s="1">
-        <v>0.60381511371973595</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.58354044030279195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.63585434173669497</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.62629893432024109</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="1"/>
+        <v>5.8653073305434036E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -5828,56 +6427,64 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.56380510440835296</v>
+        <v>0.661087866108787</v>
       </c>
       <c r="C16" s="1">
-        <v>0.58928571428571397</v>
+        <v>0.60921248142644902</v>
       </c>
       <c r="D16" s="1">
-        <v>0.57727975270479104</v>
+        <v>0.63892617449664402</v>
       </c>
       <c r="E16" s="1">
-        <v>0.64189622037155702</v>
+        <v>0.46894409937888198</v>
       </c>
       <c r="F16" s="1">
-        <v>0.51626898047722303</v>
+        <v>0.63793103448275901</v>
       </c>
       <c r="G16" s="1">
-        <v>0.65008077544426501</v>
+        <v>0.60300136425647999</v>
       </c>
       <c r="H16" s="1">
-        <v>0.63150492264416302</v>
+        <v>0.61620185922974802</v>
       </c>
       <c r="I16" s="1">
-        <v>0.65426251691475001</v>
+        <v>0.64190981432360705</v>
       </c>
       <c r="J16" s="1">
-        <v>0.59089198343996996</v>
+        <v>0.41459369817578801</v>
       </c>
       <c r="K16" s="1">
-        <v>0.64599142197294601</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.60612673926637339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.45117845117845101</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57429868430575948</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="1"/>
+        <v>8.432441284156815E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1.29198966408269E-3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -5886,19 +6493,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1.2987012987013E-3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>1.3183915622939999E-3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>1.3236267372600901E-3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -5906,56 +6513,64 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2327092623380802E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.58317757009345805</v>
+        <v>0.46730975348338699</v>
       </c>
       <c r="C18" s="1">
-        <v>0.55815831987075903</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="D18" s="1">
-        <v>0.56772673733804502</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="E18" s="1">
-        <v>0.63972856261566902</v>
+        <v>0.40275387263339102</v>
       </c>
       <c r="F18" s="1">
-        <v>0.54890864995958</v>
+        <v>0.62299854439592395</v>
       </c>
       <c r="G18" s="1">
-        <v>0.55252274607113305</v>
+        <v>0.51510067114094005</v>
       </c>
       <c r="H18" s="1">
-        <v>0.57769230769230795</v>
+        <v>0.60641399416909603</v>
       </c>
       <c r="I18" s="1">
-        <v>0.61473684210526303</v>
+        <v>0.64738292011019305</v>
       </c>
       <c r="J18" s="1">
-        <v>0.64554455445544601</v>
+        <v>0.55192878338278895</v>
       </c>
       <c r="K18" s="1">
-        <v>0.62508909479686403</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59132853849985245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.64374140302613503</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57528680375799512</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="1"/>
+        <v>7.7681498113373569E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1.29198966408269E-3</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -5964,19 +6579,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>1.2987012987013E-3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>1.3183915622939999E-3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>1.3236267372600901E-3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -5984,56 +6599,64 @@
       <c r="K19" s="1">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2327092623380802E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.60442600276625202</v>
+        <v>0.58121827411167504</v>
       </c>
       <c r="C20" s="1">
-        <v>0.569291338582677</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="D20" s="1">
-        <v>0.60885082084225595</v>
+        <v>0.61647727272727304</v>
       </c>
       <c r="E20" s="1">
-        <v>0.62761780104711995</v>
+        <v>0.56129985228951296</v>
       </c>
       <c r="F20" s="1">
-        <v>0.58810408921933099</v>
+        <v>0.60952380952381002</v>
       </c>
       <c r="G20" s="1">
-        <v>0.55908009516256896</v>
+        <v>0.44963503649635</v>
       </c>
       <c r="H20" s="1">
-        <v>0.62448132780082999</v>
+        <v>0.632624113475177</v>
       </c>
       <c r="I20" s="1">
-        <v>0.54565217391304399</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="J20" s="1">
-        <v>0.61719274680993996</v>
+        <v>0.53508771929824595</v>
       </c>
       <c r="K20" s="1">
-        <v>0.62865497076023402</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59733513669042526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.48241206030150802</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57503294202748334</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="1"/>
+        <v>4.7083035443794431E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1.29198966408269E-3</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -6042,19 +6665,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1.2987012987013E-3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>1.3183915622939999E-3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>1.3236267372600901E-3</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -6062,56 +6685,64 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2327092623380802E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.56307129798903099</v>
+        <v>0.57834394904458597</v>
       </c>
       <c r="C22" s="1">
-        <v>0.55872291904218896</v>
+        <v>0.66126855600539802</v>
       </c>
       <c r="D22" s="1">
-        <v>0.59251181388586005</v>
+        <v>0.63661202185792398</v>
       </c>
       <c r="E22" s="1">
-        <v>0.58952413557001004</v>
+        <v>0.53581661891117505</v>
       </c>
       <c r="F22" s="1">
-        <v>0.59662162162162202</v>
+        <v>0.59939759036144602</v>
       </c>
       <c r="G22" s="1">
-        <v>0.55212355212355202</v>
+        <v>0.39708802117802799</v>
       </c>
       <c r="H22" s="1">
-        <v>0.604847207586934</v>
+        <v>0.64225352112676104</v>
       </c>
       <c r="I22" s="1">
-        <v>0.59881491808992704</v>
+        <v>0.65289256198347101</v>
       </c>
       <c r="J22" s="1">
-        <v>0.60543766578249303</v>
+        <v>0.54277286135693203</v>
       </c>
       <c r="K22" s="1">
-        <v>0.60681568340051295</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.58684908150921322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.62777777777777799</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58742234796034987</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="1"/>
+        <v>6.4337734761482756E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1.29198966408269E-3</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -6120,19 +6751,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1.2987012987013E-3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>1.3183915622939999E-3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>1.3236267372600901E-3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -6140,633 +6771,701 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2327092623380802E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.56380510440835296</v>
+        <v>0.65918653576437602</v>
       </c>
       <c r="C24" s="1">
-        <v>0.58928571428571397</v>
+        <v>0.57450076804915495</v>
       </c>
       <c r="D24" s="1">
-        <v>0.57727975270479104</v>
+        <v>0.63624161073825503</v>
       </c>
       <c r="E24" s="1">
-        <v>0.64189622037155702</v>
+        <v>0.47149460708782698</v>
       </c>
       <c r="F24" s="1">
-        <v>0.51626898047722303</v>
+        <v>0.63793103448275901</v>
       </c>
       <c r="G24" s="1">
-        <v>0.65008077544426501</v>
+        <v>0.60300136425647999</v>
       </c>
       <c r="H24" s="1">
-        <v>0.63150492264416302</v>
+        <v>0.61456953642384105</v>
       </c>
       <c r="I24" s="1">
-        <v>0.65426251691475001</v>
+        <v>0.64190981432360705</v>
       </c>
       <c r="J24" s="1">
-        <v>0.59089198343996996</v>
+        <v>0.65725288831835704</v>
       </c>
       <c r="K24" s="1">
-        <v>0.64599142197294601</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.60612673926637339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.45042016806722701</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.59465083275118835</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="1"/>
+        <v>5.640300681570694E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>7.7220077220077196E-3</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>5.2083333333333296E-3</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>2.5624599615631E-3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>5.1746442432082798E-3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>6.41025641025641E-3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>3.9370078740157497E-3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>3.8216560509554101E-3</v>
+        <v>5.2631578947368403E-3</v>
       </c>
       <c r="I25" s="1">
-        <v>6.5746219592373503E-3</v>
+        <v>5.1282051282051299E-3</v>
       </c>
       <c r="J25" s="1">
-        <v>6.5061808718282401E-3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>5.1813471502590702E-3</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3098515576664668E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.02040816326531E-2</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>3.101211132226177E-3</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8939382267304219E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.58264771877337296</v>
+        <v>0.63079222720478301</v>
       </c>
       <c r="C26" s="1">
-        <v>0.55932203389830504</v>
+        <v>0.64909847434119305</v>
       </c>
       <c r="D26" s="1">
-        <v>0.56772673733804502</v>
+        <v>0.63247863247863201</v>
       </c>
       <c r="E26" s="1">
-        <v>0.63972856261566902</v>
+        <v>0.40614334470989799</v>
       </c>
       <c r="F26" s="1">
-        <v>0.54890864995958</v>
+        <v>0.62261380323054305</v>
       </c>
       <c r="G26" s="1">
-        <v>0.55200994612515497</v>
+        <v>0.65104166666666696</v>
       </c>
       <c r="H26" s="1">
-        <v>0.57769230769230795</v>
+        <v>0.60641399416909603</v>
       </c>
       <c r="I26" s="1">
-        <v>0.61473684210526303</v>
+        <v>0.65667574931880102</v>
       </c>
       <c r="J26" s="1">
-        <v>0.64554455445544601</v>
+        <v>0.62049861495844905</v>
       </c>
       <c r="K26" s="1">
-        <v>0.62508909479686403</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59134064477600079</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.64657534246575299</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6122331849543815</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4952165690285897E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>7.7220077220077196E-3</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>5.2083333333333296E-3</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>2.5624599615631E-3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>5.1746442432082798E-3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>6.41025641025641E-3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>3.9370078740157497E-3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>3.8216560509554101E-3</v>
+        <v>5.2631578947368403E-3</v>
       </c>
       <c r="I27" s="1">
-        <v>6.5746219592373503E-3</v>
+        <v>5.1282051282051299E-3</v>
       </c>
       <c r="J27" s="1">
-        <v>6.5061808718282401E-3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>5.1813471502590702E-3</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3098515576664668E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.02040816326531E-2</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>3.101211132226177E-3</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8939382267304219E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.60428176795580102</v>
+        <v>0.65417867435158505</v>
       </c>
       <c r="C28" s="1">
-        <v>0.57097915847424296</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="D28" s="1">
-        <v>0.60885082084225595</v>
+        <v>0.61626248216833102</v>
       </c>
       <c r="E28" s="1">
-        <v>0.63054830287206298</v>
+        <v>0.570596797671034</v>
       </c>
       <c r="F28" s="1">
-        <v>0.58810408921933099</v>
+        <v>0.60225442834138498</v>
       </c>
       <c r="G28" s="1">
-        <v>0.56031746031745999</v>
+        <v>0.64332036316472097</v>
       </c>
       <c r="H28" s="1">
-        <v>0.62214532871972295</v>
+        <v>0.63442389758179196</v>
       </c>
       <c r="I28" s="1">
-        <v>0.54729974628488598</v>
+        <v>0.627338129496403</v>
       </c>
       <c r="J28" s="1">
-        <v>0.61703554661301097</v>
+        <v>0.58988764044943798</v>
       </c>
       <c r="K28" s="1">
-        <v>0.63003663003663002</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59795988513354048</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.48837209302325602</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6071795796570526</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4406208537434792E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>7.7220077220077196E-3</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>5.2083333333333296E-3</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>2.5624599615631E-3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>5.1746442432082798E-3</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>6.41025641025641E-3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>3.9370078740157497E-3</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>3.8216560509554101E-3</v>
+        <v>5.2631578947368403E-3</v>
       </c>
       <c r="I29" s="1">
-        <v>6.5746219592373503E-3</v>
+        <v>5.1282051282051299E-3</v>
       </c>
       <c r="J29" s="1">
-        <v>6.5061808718282401E-3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>5.1813471502590702E-3</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3098515576664668E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.02040816326531E-2</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="0"/>
+        <v>3.101211132226177E-3</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8939382267304219E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.56451612903225801</v>
+        <v>0.65507246376811601</v>
       </c>
       <c r="C30" s="1">
-        <v>0.56289192180007397</v>
+        <v>0.63932107496463897</v>
       </c>
       <c r="D30" s="1">
-        <v>0.58896151053013801</v>
+        <v>0.63287671232876697</v>
       </c>
       <c r="E30" s="1">
-        <v>0.59097127222982204</v>
+        <v>0.54913294797687895</v>
       </c>
       <c r="F30" s="1">
-        <v>0.59722691917484005</v>
+        <v>0.60060060060060105</v>
       </c>
       <c r="G30" s="1">
-        <v>0.55835595191934895</v>
+        <v>0.64928292046936098</v>
       </c>
       <c r="H30" s="1">
-        <v>0.60474860335195502</v>
+        <v>0.64066852367687999</v>
       </c>
       <c r="I30" s="1">
-        <v>0.600971547536433</v>
+        <v>0.66129032258064502</v>
       </c>
       <c r="J30" s="1">
-        <v>0.57953749124036402</v>
+        <v>0.59972489683631403</v>
       </c>
       <c r="K30" s="1">
-        <v>0.600219058050383</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.58484004048656169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.63434903047091395</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.62623194936731152</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1539819697838152E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>7.7220077220077196E-3</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>5.2083333333333296E-3</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>2.5624599615631E-3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>5.1746442432082798E-3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>6.41025641025641E-3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>3.9370078740157497E-3</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>3.8216560509554101E-3</v>
+        <v>5.2631578947368403E-3</v>
       </c>
       <c r="I31" s="1">
-        <v>6.5746219592373503E-3</v>
+        <v>5.1282051282051299E-3</v>
       </c>
       <c r="J31" s="1">
-        <v>6.5061808718282401E-3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>5.1813471502590702E-3</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3098515576664668E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.02040816326531E-2</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="0"/>
+        <v>3.101211132226177E-3</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8939382267304219E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>0.56380510440835296</v>
+        <v>0.65918653576437602</v>
       </c>
       <c r="C32" s="1">
-        <v>0.58928571428571397</v>
+        <v>0.61242603550295904</v>
       </c>
       <c r="D32" s="1">
-        <v>0.57727975270479104</v>
+        <v>0.63538873994638101</v>
       </c>
       <c r="E32" s="1">
-        <v>0.64189622037155702</v>
+        <v>0.67158671586715901</v>
       </c>
       <c r="F32" s="1">
-        <v>0.51626898047722303</v>
+        <v>0.63793103448275901</v>
       </c>
       <c r="G32" s="1">
-        <v>0.65008077544426501</v>
+        <v>0.60382513661202197</v>
       </c>
       <c r="H32" s="1">
-        <v>0.63150492264416302</v>
+        <v>0.61375661375661394</v>
       </c>
       <c r="I32" s="1">
-        <v>0.65426251691475001</v>
+        <v>0.64190981432360705</v>
       </c>
       <c r="J32" s="1">
-        <v>0.59089198343996996</v>
+        <v>0.65725288831835704</v>
       </c>
       <c r="K32" s="1">
-        <v>0.64599142197294601</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.60612673926637339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+        <v>0.673684210526316</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.64069477251005502</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="1"/>
+        <v>6.2001735429963265E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>0.99967585089140998</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.99901413079198198</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.99903132063287003</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.99902311950504696</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.99967689822294004</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.99900826446280999</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.99903691813804196</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.99900431463657502</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.99901542500820495</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.99934640522875795</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99918326475186381</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>0.99726775956284197</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.99756097560975598</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.99859747545582001</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.998675496688742</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.99870967741935501</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.99759615384615397</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.99740932642487001</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="0"/>
+        <v>0.99858168650075396</v>
+      </c>
+      <c r="M33" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2415809273477323E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>0.58264771877337296</v>
+        <v>0.63283582089552204</v>
       </c>
       <c r="C34" s="1">
-        <v>0.55909640984267905</v>
+        <v>0.66398929049531497</v>
       </c>
       <c r="D34" s="1">
-        <v>0.56772673733804502</v>
+        <v>0.63247863247863201</v>
       </c>
       <c r="E34" s="1">
-        <v>0.63972856261566902</v>
+        <v>0.63187588152327201</v>
       </c>
       <c r="F34" s="1">
-        <v>0.54890864995958</v>
+        <v>0.62261380323054305</v>
       </c>
       <c r="G34" s="1">
-        <v>0.55200994612515497</v>
+        <v>0.64744429882044596</v>
       </c>
       <c r="H34" s="1">
-        <v>0.57264296754250399</v>
+        <v>0.60667634252539904</v>
       </c>
       <c r="I34" s="1">
-        <v>0.61538461538461497</v>
+        <v>0.65020576131687202</v>
       </c>
       <c r="J34" s="1">
-        <v>0.64554455445544601</v>
+        <v>0.62240663900414905</v>
       </c>
       <c r="K34" s="1">
-        <v>0.62522329403358301</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59089134560706502</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.67297297297297298</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.63834994432631231</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="1"/>
+        <v>4.1013570958277281E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0.99319727891156395</v>
       </c>
       <c r="C35" s="1">
-        <v>0.99967159277504103</v>
+        <v>0.99344692005242496</v>
       </c>
       <c r="D35" s="1">
-        <v>0.99967731526298798</v>
+        <v>0.99751243781094501</v>
       </c>
       <c r="E35" s="1">
-        <v>0.99967458509599705</v>
+        <v>0.996345919610231</v>
       </c>
       <c r="F35" s="1">
-        <v>0.99967689822294004</v>
+        <v>0.99026425591098799</v>
       </c>
       <c r="G35" s="1">
-        <v>0.99966963990749902</v>
+        <v>0.99643281807372197</v>
       </c>
       <c r="H35" s="1">
-        <v>0.99967917869746503</v>
+        <v>0.99472295514511899</v>
       </c>
       <c r="I35" s="1">
-        <v>0.99966832504145897</v>
+        <v>0.99485861182519297</v>
       </c>
       <c r="J35" s="1">
-        <v>0.99967202361429996</v>
+        <v>0.99401197604790403</v>
       </c>
       <c r="K35" s="1">
-        <v>0.99967330937602095</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99970628679937101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.98844672657252897</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99392398999606191</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="1"/>
+        <v>7.8562552036973884E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>0.60428176795580102</v>
+        <v>0.65597667638484003</v>
       </c>
       <c r="C36" s="1">
-        <v>0.570754716981132</v>
+        <v>0.653295128939828</v>
       </c>
       <c r="D36" s="1">
-        <v>0.60714285714285698</v>
+        <v>0.61911554921540701</v>
       </c>
       <c r="E36" s="1">
-        <v>0.62896371363190595</v>
+        <v>0.64150943396226401</v>
       </c>
       <c r="F36" s="1">
-        <v>0.58810408921933099</v>
+        <v>0.60353130016051404</v>
       </c>
       <c r="G36" s="1">
-        <v>0.562226640159046</v>
+        <v>0.64041994750656195</v>
       </c>
       <c r="H36" s="1">
-        <v>0.62409389023127404</v>
+        <v>0.63456090651558095</v>
       </c>
       <c r="I36" s="1">
-        <v>0.54789550072568904</v>
+        <v>0.62150220913107501</v>
       </c>
       <c r="J36" s="1">
-        <v>0.61492137838742</v>
+        <v>0.59520451339915403</v>
       </c>
       <c r="K36" s="1">
-        <v>0.62815356489945195</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59765381193339073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.62968515742128905</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.62948008226365137</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9763251684237188E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>0.99319727891156395</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>0.99344692005242496</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>0.99751243781094501</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0.996345919610231</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>0.99026425591098799</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>0.99643281807372197</v>
       </c>
       <c r="H37" s="1">
-        <v>1</v>
+        <v>0.99472295514511899</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>0.99485861182519297</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0.99401197604790403</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.98844672657252897</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99392398999606191</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="1"/>
+        <v>7.8562552036973884E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>0.55956284153005498</v>
+        <v>0.65300146412884297</v>
       </c>
       <c r="C38" s="1">
-        <v>0.56286982248520701</v>
+        <v>0.65217391304347805</v>
       </c>
       <c r="D38" s="1">
-        <v>0.59331880900508405</v>
+        <v>0.63835616438356202</v>
       </c>
       <c r="E38" s="1">
-        <v>0.59041095890410999</v>
+        <v>0.65979381443299001</v>
       </c>
       <c r="F38" s="1">
-        <v>0.59844120637072196</v>
+        <v>0.59467455621301801</v>
       </c>
       <c r="G38" s="1">
-        <v>0.55779674166020199</v>
+        <v>0.64558629776021104</v>
       </c>
       <c r="H38" s="1">
-        <v>0.60273013650682505</v>
+        <v>0.64453665283540795</v>
       </c>
       <c r="I38" s="1">
-        <v>0.60118425635667005</v>
+        <v>0.65564738292011004</v>
       </c>
       <c r="J38" s="1">
-        <v>0.58198451794510897</v>
+        <v>0.60137931034482806</v>
       </c>
       <c r="K38" s="1">
-        <v>0.606635071090047</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="0"/>
-        <v>0.58549343618540317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.66936572199730104</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.64145152780597492</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="1"/>
+        <v>5.9951087445823676E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0.99319727891156395</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>0.99344692005242496</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.99751243781094501</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>0.996345919610231</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>0.99026425591098799</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>0.99643281807372197</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>0.99472295514511899</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>0.99485861182519297</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0.99401197604790403</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.98844672657252897</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99392398999606191</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="1"/>
+        <v>7.8562552036973884E-6</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programare\Projects\Purchase-Pattern-Predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11783335-5F67-4E66-B95F-0EC24D49AEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D165CC-D342-4BF5-8E44-009B06E14FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -278,11 +278,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,19 +332,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,7 +684,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,10 +2095,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>0.99918896999189</v>
       </c>
       <c r="C33" s="11">
@@ -2384,11 +2405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,7 +2455,7 @@
       <c r="L1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2476,7 +2497,7 @@
         <f>AVERAGE(B2:K2)</f>
         <v>0.15185469575540317</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="1">
         <f>VARA(B2:K2)</f>
         <v>6.8157542215303074E-3</v>
       </c>
@@ -2519,7 +2540,7 @@
         <f t="shared" ref="L3:L39" si="0">AVERAGE(B3:K3)</f>
         <v>0.74368533803656778</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="1">
         <f t="shared" ref="M3:M39" si="1">VARA(B3:K3)</f>
         <v>1.7660242168156305E-3</v>
       </c>
@@ -2562,7 +2583,7 @@
         <f t="shared" si="0"/>
         <v>0.16026120566086249</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>4.6535488768473183E-3</v>
       </c>
@@ -2605,7 +2626,7 @@
         <f t="shared" si="0"/>
         <v>0.76455218402269021</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>1.7561534189443945E-3</v>
       </c>
@@ -2648,7 +2669,7 @@
         <f t="shared" si="0"/>
         <v>0.26741646679696285</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>6.8701529719832838E-3</v>
       </c>
@@ -2691,7 +2712,7 @@
         <f t="shared" si="0"/>
         <v>0.76737992064105787</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>1.5233422163960326E-3</v>
       </c>
@@ -2734,7 +2755,7 @@
         <f t="shared" si="0"/>
         <v>0.67582352649109345</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>7.9272474640053282E-4</v>
       </c>
@@ -2777,7 +2798,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2820,7 +2841,7 @@
         <f t="shared" si="0"/>
         <v>0.71951451416937817</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>1.7367799349359782E-3</v>
       </c>
@@ -2863,7 +2884,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2906,7 +2927,7 @@
         <f t="shared" si="0"/>
         <v>0.72791770050128612</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>9.2451543641908446E-4</v>
       </c>
@@ -2949,7 +2970,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2992,7 +3013,7 @@
         <f t="shared" si="0"/>
         <v>0.6952415957428848</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>1.4053714674442607E-3</v>
       </c>
@@ -3035,7 +3056,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3078,7 +3099,7 @@
         <f t="shared" si="0"/>
         <v>0.66722946744205691</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
         <v>6.9779942840511621E-4</v>
       </c>
@@ -3121,7 +3142,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3164,7 +3185,7 @@
         <f t="shared" si="0"/>
         <v>0.63140111370212859</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
         <v>1.6637173014732949E-2</v>
       </c>
@@ -3207,7 +3228,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3250,7 +3271,7 @@
         <f t="shared" si="0"/>
         <v>0.65013117957962807</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
         <v>1.5918927800614411E-2</v>
       </c>
@@ -3293,7 +3314,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3336,7 +3357,7 @@
         <f t="shared" si="0"/>
         <v>0.62698769030411117</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
         <v>1.7602048714914491E-2</v>
       </c>
@@ -3379,7 +3400,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3422,7 +3443,7 @@
         <f t="shared" si="0"/>
         <v>0.66851901862121688</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="1">
         <f t="shared" si="1"/>
         <v>8.8272006535031005E-4</v>
       </c>
@@ -3465,7 +3486,7 @@
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="1">
         <f t="shared" si="1"/>
         <v>5.5111111111111125E-2</v>
       </c>
@@ -3508,7 +3529,7 @@
         <f t="shared" si="0"/>
         <v>0.69654102610922597</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="1">
         <f t="shared" si="1"/>
         <v>6.9367221223501775E-4</v>
       </c>
@@ -3551,7 +3572,7 @@
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="1">
         <f t="shared" si="1"/>
         <v>5.5111111111111125E-2</v>
       </c>
@@ -3594,7 +3615,7 @@
         <f t="shared" si="0"/>
         <v>0.70551228281580003</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="1">
         <f t="shared" si="1"/>
         <v>1.8912958783310152E-4</v>
       </c>
@@ -3637,7 +3658,7 @@
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="1">
         <f t="shared" si="1"/>
         <v>5.5111111111111125E-2</v>
       </c>
@@ -3680,7 +3701,7 @@
         <f t="shared" si="0"/>
         <v>0.6884055188437066</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="1">
         <f t="shared" si="1"/>
         <v>3.6523252346882238E-4</v>
       </c>
@@ -3723,7 +3744,7 @@
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="1">
         <f t="shared" si="1"/>
         <v>5.5111111111111125E-2</v>
       </c>
@@ -3766,16 +3787,16 @@
         <f t="shared" si="0"/>
         <v>0.67716271896819002</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="1">
         <f t="shared" si="1"/>
         <v>7.8767646619550327E-4</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>1</v>
       </c>
       <c r="C33" s="11">
@@ -3809,7 +3830,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3852,7 +3873,7 @@
         <f t="shared" si="0"/>
         <v>0.7042863574668381</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="1">
         <f t="shared" si="1"/>
         <v>1.0078161554676051E-3</v>
       </c>
@@ -3895,7 +3916,7 @@
         <f t="shared" si="0"/>
         <v>0.99071203779479777</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="1">
         <f t="shared" si="1"/>
         <v>2.456181149616327E-5</v>
       </c>
@@ -3938,7 +3959,7 @@
         <f t="shared" si="0"/>
         <v>0.71611819212176431</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="1">
         <f t="shared" si="1"/>
         <v>2.9566425723921035E-4</v>
       </c>
@@ -3981,7 +4002,7 @@
         <f t="shared" si="0"/>
         <v>0.99071203779479777</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="1">
         <f t="shared" si="1"/>
         <v>2.456181149616327E-5</v>
       </c>
@@ -4024,7 +4045,7 @@
         <f t="shared" si="0"/>
         <v>0.69260854494382462</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="1">
         <f t="shared" si="1"/>
         <v>7.0225308783151389E-4</v>
       </c>
@@ -4067,7 +4088,7 @@
         <f t="shared" si="0"/>
         <v>0.99071203779479777</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="1">
         <f t="shared" si="1"/>
         <v>2.456181149616327E-5</v>
       </c>
@@ -4086,7 +4107,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,7 +4153,7 @@
       <c r="L1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4174,7 +4195,7 @@
         <f>AVERAGE(B2:K2)</f>
         <v>0.27060149384223875</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="1">
         <f>VARA(B2:K2)</f>
         <v>9.1745580666109203E-2</v>
       </c>
@@ -4217,7 +4238,7 @@
         <f t="shared" ref="L3:L39" si="0">AVERAGE(B3:K3)</f>
         <v>0.36232527925542957</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="1">
         <f t="shared" ref="M3:M39" si="1">VARA(B3:K3)</f>
         <v>4.8475365213993295E-3</v>
       </c>
@@ -4260,7 +4281,7 @@
         <f t="shared" si="0"/>
         <v>0.47928111302313081</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>4.4495235121106785E-2</v>
       </c>
@@ -4303,7 +4324,7 @@
         <f t="shared" si="0"/>
         <v>0.37606613462741478</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>4.2394615510090057E-4</v>
       </c>
@@ -4346,7 +4367,7 @@
         <f t="shared" si="0"/>
         <v>0.58682707351859653</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>1.4399486656989917E-2</v>
       </c>
@@ -4389,7 +4410,7 @@
         <f t="shared" si="0"/>
         <v>0.3622779416311418</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>3.4546201625678915E-4</v>
       </c>
@@ -4432,7 +4453,7 @@
         <f t="shared" si="0"/>
         <v>0.61468618929600616</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>1.9354724869322724E-3</v>
       </c>
@@ -4475,7 +4496,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4518,7 +4539,7 @@
         <f t="shared" si="0"/>
         <v>0.5591351823541626</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>4.9215309493800435E-4</v>
       </c>
@@ -4561,7 +4582,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4604,7 +4625,7 @@
         <f t="shared" si="0"/>
         <v>0.53667747320566184</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>1.2383940040776985E-3</v>
       </c>
@@ -4647,7 +4668,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4690,7 +4711,7 @@
         <f t="shared" si="0"/>
         <v>0.57155622867931943</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>1.1842470220987853E-3</v>
       </c>
@@ -4733,7 +4754,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4776,7 +4797,7 @@
         <f t="shared" si="0"/>
         <v>0.51803628835283677</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
         <v>1.706430838997846E-2</v>
       </c>
@@ -4819,7 +4840,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4862,7 +4883,7 @@
         <f t="shared" si="0"/>
         <v>0.5623063150699118</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
         <v>1.4998428851787458E-2</v>
       </c>
@@ -4905,7 +4926,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4948,7 +4969,7 @@
         <f t="shared" si="0"/>
         <v>0.54546968530114393</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
         <v>1.0864827807041393E-2</v>
       </c>
@@ -4991,7 +5012,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5034,7 +5055,7 @@
         <f t="shared" si="0"/>
         <v>0.58136409198275862</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
         <v>6.8075082361085887E-3</v>
       </c>
@@ -5077,7 +5098,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5120,7 +5141,7 @@
         <f t="shared" si="0"/>
         <v>0.54439409840715658</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="1">
         <f t="shared" si="1"/>
         <v>1.1676386006997644E-2</v>
       </c>
@@ -5163,7 +5184,7 @@
         <f t="shared" si="0"/>
         <v>1.566782574434353E-3</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="1">
         <f t="shared" si="1"/>
         <v>4.8497981358442592E-6</v>
       </c>
@@ -5206,7 +5227,7 @@
         <f t="shared" si="0"/>
         <v>0.55443840034755232</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="1">
         <f t="shared" si="1"/>
         <v>9.5249751981642105E-3</v>
       </c>
@@ -5249,7 +5270,7 @@
         <f t="shared" si="0"/>
         <v>1.566782574434353E-3</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="1">
         <f t="shared" si="1"/>
         <v>4.8497981358442592E-6</v>
       </c>
@@ -5292,7 +5313,7 @@
         <f t="shared" si="0"/>
         <v>0.53654823646731808</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="1">
         <f t="shared" si="1"/>
         <v>4.9524966765352512E-3</v>
       </c>
@@ -5335,7 +5356,7 @@
         <f t="shared" si="0"/>
         <v>1.566782574434353E-3</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="1">
         <f t="shared" si="1"/>
         <v>4.8497981358442592E-6</v>
       </c>
@@ -5378,7 +5399,7 @@
         <f t="shared" si="0"/>
         <v>0.57619522720731009</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="1">
         <f t="shared" si="1"/>
         <v>2.5566370437040738E-3</v>
       </c>
@@ -5421,7 +5442,7 @@
         <f t="shared" si="0"/>
         <v>1.566782574434353E-3</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="1">
         <f t="shared" si="1"/>
         <v>4.8497981358442592E-6</v>
       </c>
@@ -5464,16 +5485,16 @@
         <f t="shared" si="0"/>
         <v>0.61039277135762626</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="1">
         <f t="shared" si="1"/>
         <v>2.0131518235565475E-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>0.99455040871934597</v>
       </c>
       <c r="C33" s="11">
@@ -5507,7 +5528,7 @@
         <f t="shared" si="0"/>
         <v>0.99716961642634971</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="11">
         <f t="shared" si="1"/>
         <v>4.9406171983153356E-6</v>
       </c>
@@ -5550,7 +5571,7 @@
         <f t="shared" si="0"/>
         <v>0.58606886982160655</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="1">
         <f t="shared" si="1"/>
         <v>1.6341430316449564E-3</v>
       </c>
@@ -5593,7 +5614,7 @@
         <f t="shared" si="0"/>
         <v>0.99716961642634971</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="1">
         <f t="shared" si="1"/>
         <v>4.9406171983153356E-6</v>
       </c>
@@ -5636,7 +5657,7 @@
         <f t="shared" si="0"/>
         <v>0.562887212522998</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="1">
         <f t="shared" si="1"/>
         <v>1.2598493078778336E-3</v>
       </c>
@@ -5679,7 +5700,7 @@
         <f t="shared" si="0"/>
         <v>0.99716961642634971</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="1">
         <f t="shared" si="1"/>
         <v>4.9406171983153356E-6</v>
       </c>
@@ -5722,7 +5743,7 @@
         <f t="shared" si="0"/>
         <v>0.59859568114535222</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="1">
         <f t="shared" si="1"/>
         <v>1.3005117711572594E-3</v>
       </c>
@@ -5765,7 +5786,7 @@
         <f t="shared" si="0"/>
         <v>0.99716961642634971</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="1">
         <f t="shared" si="1"/>
         <v>4.9406171983153356E-6</v>
       </c>
@@ -5780,11 +5801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5830,7 +5851,7 @@
       <c r="L1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5872,7 +5893,7 @@
         <f>AVERAGE(B2:K2)</f>
         <v>0.14563572621198473</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="1">
         <f>VARA(B2:K2)</f>
         <v>1.0710781095749097E-2</v>
       </c>
@@ -5915,7 +5936,7 @@
         <f t="shared" ref="L3:L39" si="0">AVERAGE(B3:K3)</f>
         <v>0.48320212302155741</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="1">
         <f t="shared" ref="M3:M39" si="1">VARA(B3:K3)</f>
         <v>4.0795473941279935E-3</v>
       </c>
@@ -5958,7 +5979,7 @@
         <f t="shared" si="0"/>
         <v>0.23618701420962407</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>9.1289757802585324E-3</v>
       </c>
@@ -6001,7 +6022,7 @@
         <f t="shared" si="0"/>
         <v>0.50336831291636974</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>3.6506445345726638E-4</v>
       </c>
@@ -6044,7 +6065,7 @@
         <f t="shared" si="0"/>
         <v>0.3624176740365484</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>8.3153149324895412E-3</v>
       </c>
@@ -6087,7 +6108,7 @@
         <f t="shared" si="0"/>
         <v>0.49149120558136056</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>2.4775647024411743E-4</v>
       </c>
@@ -6130,7 +6151,7 @@
         <f t="shared" si="0"/>
         <v>0.64251770318440737</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>6.1757260363926362E-4</v>
       </c>
@@ -6173,7 +6194,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6216,7 +6237,7 @@
         <f t="shared" si="0"/>
         <v>0.62840835444901721</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>3.448283987045565E-4</v>
       </c>
@@ -6259,7 +6280,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6302,7 +6323,7 @@
         <f t="shared" si="0"/>
         <v>0.61657288771728391</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>3.8287523779974731E-4</v>
       </c>
@@ -6345,7 +6366,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6388,7 +6409,7 @@
         <f t="shared" si="0"/>
         <v>0.62629893432024109</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>5.8653073305434036E-4</v>
       </c>
@@ -6431,7 +6452,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6474,7 +6495,7 @@
         <f t="shared" si="0"/>
         <v>0.57429868430575948</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
         <v>8.432441284156815E-3</v>
       </c>
@@ -6517,7 +6538,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6560,7 +6581,7 @@
         <f t="shared" si="0"/>
         <v>0.57528680375799512</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
         <v>7.7681498113373569E-3</v>
       </c>
@@ -6603,7 +6624,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6646,7 +6667,7 @@
         <f t="shared" si="0"/>
         <v>0.57503294202748334</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
         <v>4.7083035443794431E-3</v>
       </c>
@@ -6689,7 +6710,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6732,7 +6753,7 @@
         <f t="shared" si="0"/>
         <v>0.58742234796034987</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
         <v>6.4337734761482756E-3</v>
       </c>
@@ -6775,7 +6796,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6818,7 +6839,7 @@
         <f t="shared" si="0"/>
         <v>0.59465083275118835</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="1">
         <f t="shared" si="1"/>
         <v>5.640300681570694E-3</v>
       </c>
@@ -6861,7 +6882,7 @@
         <f t="shared" si="0"/>
         <v>3.101211132226177E-3</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="1">
         <f t="shared" si="1"/>
         <v>1.8939382267304219E-5</v>
       </c>
@@ -6904,7 +6925,7 @@
         <f t="shared" si="0"/>
         <v>0.6122331849543815</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="1">
         <f t="shared" si="1"/>
         <v>5.4952165690285897E-3</v>
       </c>
@@ -6947,7 +6968,7 @@
         <f t="shared" si="0"/>
         <v>3.101211132226177E-3</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="1">
         <f t="shared" si="1"/>
         <v>1.8939382267304219E-5</v>
       </c>
@@ -6990,7 +7011,7 @@
         <f t="shared" si="0"/>
         <v>0.6071795796570526</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="1">
         <f t="shared" si="1"/>
         <v>2.4406208537434792E-3</v>
       </c>
@@ -7033,7 +7054,7 @@
         <f t="shared" si="0"/>
         <v>3.101211132226177E-3</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="1">
         <f t="shared" si="1"/>
         <v>1.8939382267304219E-5</v>
       </c>
@@ -7076,7 +7097,7 @@
         <f t="shared" si="0"/>
         <v>0.62623194936731152</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="1">
         <f t="shared" si="1"/>
         <v>1.1539819697838152E-3</v>
       </c>
@@ -7119,13 +7140,13 @@
         <f t="shared" si="0"/>
         <v>3.101211132226177E-3</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="1">
         <f t="shared" si="1"/>
         <v>1.8939382267304219E-5</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -7162,13 +7183,13 @@
         <f t="shared" si="0"/>
         <v>0.64069477251005502</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="1">
         <f t="shared" si="1"/>
         <v>6.2001735429963265E-4</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="11">
@@ -7205,13 +7226,13 @@
         <f t="shared" si="0"/>
         <v>0.99858168650075396</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="11">
         <f t="shared" si="1"/>
         <v>1.2415809273477323E-6</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -7248,7 +7269,7 @@
         <f t="shared" si="0"/>
         <v>0.63834994432631231</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="1">
         <f t="shared" si="1"/>
         <v>4.1013570958277281E-4</v>
       </c>
@@ -7291,7 +7312,7 @@
         <f t="shared" si="0"/>
         <v>0.99392398999606191</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="1">
         <f t="shared" si="1"/>
         <v>7.8562552036973884E-6</v>
       </c>
@@ -7334,7 +7355,7 @@
         <f t="shared" si="0"/>
         <v>0.62948008226365137</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="1">
         <f t="shared" si="1"/>
         <v>3.9763251684237188E-4</v>
       </c>
@@ -7377,7 +7398,7 @@
         <f t="shared" si="0"/>
         <v>0.99392398999606191</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="1">
         <f t="shared" si="1"/>
         <v>7.8562552036973884E-6</v>
       </c>
@@ -7420,7 +7441,7 @@
         <f t="shared" si="0"/>
         <v>0.64145152780597492</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="1">
         <f t="shared" si="1"/>
         <v>5.9951087445823676E-4</v>
       </c>
@@ -7463,7 +7484,7 @@
         <f t="shared" si="0"/>
         <v>0.99392398999606191</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="1">
         <f t="shared" si="1"/>
         <v>7.8562552036973884E-6</v>
       </c>
